--- a/example.xlsx
+++ b/example.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>question</t>
@@ -38,7 +38,907 @@
     <t>answer</t>
   </si>
   <si>
-    <t>1+1=?</t>
+    <t>看图列式计算。1. )$$ \frac{3}{5} $$75kgkg</t>
+  </si>
+  <si>
+    <t>19. 已知$$  1 0 ^ { m } = 4 ,   1 0 ^ { n } = 5 $$,求 $$  1 0 ^ { 3 m + 2 n } $$的值.</t>
+  </si>
+  <si>
+    <t>2. 进制转化$$  ( 7 5 ) _ { 1 0 } = ( \_ ) _ { 5 }   ( 4 3 2 ) _ { 1 0 } = ( \_ ) _ { 6 } $$</t>
+  </si>
+  <si>
+    <t>$$  x + \frac { 1 } { 8 } = \frac { 1 1 } { 1 2 }   \frac { 1 0 } { 1 1 } - x = \frac { 2 } { 3 }   x - \frac { 4 } { 5 } = \frac { 1 } { 2 } $$</t>
+  </si>
+  <si>
+    <t>4. 看图列式计算。(6分)?$$  \frac { 5 } { 7 } $$$$  \frac { 3 } { 8 }   \frac { 4 } { 8 }   \frac { 3 } { 7 } $$?</t>
+  </si>
+  <si>
+    <t>1.函数f(x)的图像如图所示,则f(x)的单调递增区间为 (  )A. (a, $$  x _ { 1 } $$) yB. ( $$  x _ { 2 } $$,b)$$  C . ( a , x _ { 1 } ) \cup ( x _ { 2 } , b ) $$a$$  x _ { 2 } $$O$$  x _ { 1 } $$ b xD. (a, $$  x _ { 1 } $$)和( $$  x _ { 2 } $$,b)</t>
+  </si>
+  <si>
+    <t>4 解下列方程。$$  x + \frac { 3 } { 7 } = \frac { 3 } { 4 }   x - \frac { 5 } { 1 2 } = \frac { 3 } { 8 }   x - \frac { 5 } { 6 } = 1   \frac { 5 } { 9 } + x = \frac { 3 } { 5 } $$</t>
+  </si>
+  <si>
+    <t>3、若点P(2,-1)为圆$$  ( x - 1 ) ^ { 2 } + y ^ { 2 } = 2 5 $$的弦AB的中点,则直线AB的方程是( ).A、$$  x - y - 3 = 0 $$ B、$$  2 x + y - 3 = 0 $$ C、$$  x + y - 1 = 0 $$ D、$$  2 x - y - 5 = 0 $$</t>
+  </si>
+  <si>
+    <t>我每分录入 我每分录入4.有一份5700字的文件,由于时间 100个字。 90个字。紧急,安排甲、乙两名打字员同时开始录人。录完这份文件需用多长时间?甲打字员 乙打字员</t>
+  </si>
+  <si>
+    <t>5、一圆柱形油桶,底面周长12.56分米,高1米,桶油注入$$  \frac { 3 } { 4 } $$ 的油,每立方米油重0.85吨,这桶油还可注入多少千克油?</t>
+  </si>
+  <si>
+    <t>2.一堆沙子有 $$  \frac { 1 1 } { 6 } $$t,第一次运走$$  \frac { 5 } { 8 } $$ t,第二次运走$$  \frac { 5 } { 6 } $$ t,还剩多少吨?</t>
+  </si>
+  <si>
+    <t>(8)$$  \sqrt [ 3 ] { - 2 7 } + \sqrt { 4 } + ( - 3 ) ^ { 2 } \times | - 2 | + ( - 1 ) ^ { 3 } ; $$</t>
+  </si>
+  <si>
+    <t>题目练习一一项工程,甲、乙两队合作15天完成,若甲队做5天,乙队做3天,只能完成工程的 $$  \frac { 7 } { 3 0 } $$,乙队单独完成全部工程需要几天?</t>
+  </si>
+  <si>
+    <t>20cm 13. 将一块长18dm,宽12dm的铁皮,从四个角各切掉一个边长为20cm的正方形,然后做成无盖的盒子, 12dm这个盒子的表面积和体积各是多少?(6分)18dm</t>
+  </si>
+  <si>
+    <t>9吨40千克=( 吨=()千克4$$ 9吨40千克=(9040)千 $$</t>
+  </si>
+  <si>
+    <t>4、a、b、c是△ABC的三边长,方程$$  ( c - b ) x ^ { 2 } - 2 ( b - a ) x + ( a - b ) = 0 $$有两个相等的实数根,这个三角形是(  )A、等边三角形 B、直角三角形 C、等腰三角形 D、任意三角形</t>
+  </si>
+  <si>
+    <t>如图,已知△ABC的面积为16,$$  B C = 8 。 $$。现将$$  \Delta A B O $$沿直线BC向右平移a个单位到$$  \Delta D F F $$的位置.$$  ( 1 ) 求 \Delta A B C 的 高 $$;(2)当△ABC所扫过的面积为32时,求a的值;(3)连接AE、AD,当$$  A B = 5 ,   a = 5 $$时,试判断$$  \Delta A D E $$的形状,并说明理由.A DB E C F</t>
+  </si>
+  <si>
+    <t>4. 一小和二小有同样多的同学参加金杯赛,学校用汽车把学生送往考场,一小用的汽车,每车坐15人,二小用的汽车,每车坐13人,结果二小比一小要多派一辆汽车,后来每校各增加一个人参加竞赛,这样两校需要的汽车就一样多了,最后又决定每校再各增加一个人参加竞赛,二小又要比一小多派一辆汽车,问最后两校共有 多少人参加竞赛?</t>
+  </si>
+  <si>
+    <t>16.一个直角三角形的面积是18平方厘米,那么这个三角形( )轴对称图形。(填写是、不是或可能是)</t>
+  </si>
+  <si>
+    <t>12.(13分)如图①,在四边形ABCD中$$  \angle A = x ^ { \circ }   \angle C = y ^ { \circ } $$(1)$$  \angle A B C + \angle A D C = $$(用含x,y的代数式表示):(2)BE、DF分别为∠ABC、∠ADC的外角平分线,①当$$  x = y $$时,BE与DF的位置关系是②当$$  y = 2 x $$时,若BE与DF交于点P,且$$  \angle D P B = 1 0 ^ { \circ } $$求y的值.3)如图②,∠ABC的平分线与∠ADC的外角平分线交于点O,则$$  \angle Q = \_ $$(用含x,y的代数式表示).A D MA DC x C2 BN B</t>
+  </si>
+  <si>
+    <t>妈妈拿10元钱,让我买 还剩多少3千克白菜。 元钱呢?1千克2元</t>
+  </si>
+  <si>
+    <t>9.欲登上第10级楼梯,如果规定每步只能跨上一级或两级,则不同的走法共有 ( )A.34种 B. 55种C. 89种 D. 144种</t>
+  </si>
+  <si>
+    <t>总复8.判断各题的 否成比例,成比例的是成正比例还是反比例?(1)步测一段距离, 每步的平均长度和走的步数。(2)一台压路机滚 筒滚动的转数和压路的面积。(3)一台收割机每 时收割麦子的面积一定,麦地面积和收割时间(4)图书室的藏丰数量一定,每天借出和还回的书的本数。(5)已知$$  x y = 1 0 $$,x和y。</t>
+  </si>
+  <si>
+    <t>如图,在$$  \Delta A B C $$中,$$  \angle 1 = \angle 2 $$,G是AD的中点,延长BG交AC于点E,F为AB上一点,$$  C F \bot A D $$于H,下面判断正确的有()AA. AD是$$  \Delta A B C $$的角平分线  2B. BE是$$  \Delta A B D $$的AD边上的中线 G E FC. CH为 $$  \Delta A C D $$边AD上的中线 HCD. AH是△ACF的角平分线和高线 B D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、某人某天能加工甲种零件12个或乙种零件10个或丙种零件20个,而甲、乙、丙三种零件分别取3个、2个、1个能配成一套,要在10天内加工最多的成套产品,甲、乙、丙三种产品各应加工几天? </t>
+  </si>
+  <si>
+    <t>18. (9分)把一个棱长为整数的长方体的表面都涂上红色,然后切割成棱长为1的小立方体.其中,两面有红色的小立方块有40块,一面有红色的小立方块有66块,那么这个长方体的体积是多少?</t>
+  </si>
+  <si>
+    <t>★3.(1)五年级共有学生200人,课外活动时,80名女生都去跳绳。男生分成4组去打乒乓球,男生平均每组多少人?</t>
+  </si>
+  <si>
+    <t>3. 小红读一本文学名著, 如果每天读40页,10天可以读完。如果小红想8天读完, 平均每天应读几页?(用比例知识解答)</t>
+  </si>
+  <si>
+    <t>$$  1 + 2 - 3 - 4 + 5 + 6 - 7 - 8 \cdots - 1 9 9 5 - 1 9 9 6 + 1 9 9 7 + 1 9 9 8 $$</t>
+  </si>
+  <si>
+    <t>15. 某科学家设计了一只怪钟.这只怪钟每昼夜10时,每小时120分钟.当这只钟显示5点整时,实际上是中午12点整.当实际时间下午5点24分时,这只怪钟显示的时间为</t>
+  </si>
+  <si>
+    <t>【练习17】黑板上写有两个分数: $$  \frac { 1 7 } { 2 0 1 2 } $$, $$  \frac { 1 9 } { 1 5 0 9 } $$,作如下操作;用两数之差(大数减小数)取代大数,得到新的两个数.再同样进行操作,直到出现相同的两个数.最后出现相同的两个数是___.</t>
+  </si>
+  <si>
+    <t>(4)一台笔记本电脑原价是5000元,先降价10%后又降价10%,那么现价( )元。</t>
+  </si>
+  <si>
+    <t>求$$  y = 2 - \sqrt { - x ^ { 2 } + 4 x } $$的最小值.</t>
+  </si>
+  <si>
+    <t>3. 二元一次方程$$  5 x + 2 y = 1 5 $$的正整数解是___</t>
+  </si>
+  <si>
+    <t>8.解决问题。(1)某农场今年收粮食12.74万千克,比去年少收1.8万千克。这两年共收粮食多少万千克?</t>
+  </si>
+  <si>
+    <t>把1元平均分成100份,其中30份用小数表示为_元。()A.0.03B.0.30C.0.030</t>
+  </si>
+  <si>
+    <t>答:心面&amp;是&amp;平方米。 名总面和1思维拓展 用心想一想5.街心花园中一个正方形的花坛四周有1米宽的水泥路。如果水泥路的总面积是12平方米,那么中间花坛的面积是多少平方米?</t>
+  </si>
+  <si>
+    <t>【例题二】计算:(1)$$  \sqrt { 3 } \div \sqrt { 5 } $$ (2)$$  \sqrt { 7 } \div 2 \sqrt { 1 2 } $$</t>
+  </si>
+  <si>
+    <t>5. 下列命题是假命题的是(  )A. 中心投影下,物高与影长成正比 B. 平移不改变图形的形状和大小C. 三角形的中位线平行于第三边 D. 圆的切线垂直于过切点的半径</t>
+  </si>
+  <si>
+    <t>⑥有甲、乙、丙三种铅笔,它们的价钱分别是8角、6角、3角,三种铅笔一共买了42支,了24元6角,已知乙种铅笔的支数是丙种铅笔支数的2倍。三种铅笔各买了多少支?</t>
+  </si>
+  <si>
+    <t>178+249=</t>
+  </si>
+  <si>
+    <t>5. 一辆客车和一辆货车分别从甲、乙两地同时出发,相向而行,客车与货车的速度比是$$  5 : 3 $$3,客车行驶全程的$$  \frac { 2 } { 5 } $$ 多36km时,正好和货车相遇。甲、乙两地相距多远?</t>
+  </si>
+  <si>
+    <t>1. 已知关于x的方程$$  3 a x + 7 = x $$有唯一解,则a满足的条件是</t>
+  </si>
+  <si>
+    <t>-1.4145. 数轴上与-$$  \sqrt { 2 } $$距离为 $$  \sqrt { 3 } $$的点所表示的数是 3</t>
+  </si>
+  <si>
+    <t>24.(本题12分)如图1,⊙O为△ABC外接圆,点D、E分别为 $$  \widehat { A B } $$、 $$  A C $$中点,连结AD、AE、DE,DE分别与AB、AC交于点F、G.已知$$  A F = 4 $$.(1)求证:$$  A F = A G $$(2)如图2,连结CD交AB于点M,连结BE交CD于点N,连结BD、CE.若$$  \angle B A C = 6 0 ^ { \circ } $$求证:△NEC是等边三角形. 811 A(3)在(2)的基础上,若$$  \tan \angle D A F = \frac { 3 \sqrt { 3 } } { 7 } $$, D D B①求DN的长: F G E G EO 0 N②求$$  \frac { S _ { \Delta C B E } } { S _ { 四 边 形 A D B E } } $$ B C BC(图1) (图2)(第24题)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找出下列数的排列规律,并填空:1,6,11,16,21,......,则第六个数为  ,第n个数为 </t>
+  </si>
+  <si>
+    <t>3. 已知函数$$  f ( x ) = x ^ { 2 } - 8 a x + 2 ( a \in R ) . $$(1)若f(x)在[2,4]上是单调递减函数,求a的取值范围;(2)若$$  f ( x ) &gt; - x ^ { 3 } + 9 x ^ { 2 } + 2 $$ 上恒成立,求a的取值范围</t>
+  </si>
+  <si>
+    <t>4.0.8与一个数的乘积是1,这个数是(  ),它与0.8互为()。</t>
+  </si>
+  <si>
+    <t>5.请用左边的5个图形拼成右边的大正方形,怎么拼?8.) ) ()1</t>
+  </si>
+  <si>
+    <t>9. 为了让大家感受丢弃塑料袋对环境的影响,某班环保小组的六名同学记录了自己家中一周内丢弃的塑料袋的数量,结果如下(单位:个):33,25,28,26,25,31. 如果该班有45位学生,那么根据提供的数据估计本周全班各家平均丢弃塑料袋的数量约为___个.</t>
+  </si>
+  <si>
+    <t>(1)最大的三位数与最小的三位数的差是()。</t>
+  </si>
+  <si>
+    <t>3. 如图,正五边形ABCDE与正五边形FGHMN是相似形,若$$  A B : F G = 2 : 3 $$,则下列结论正确的是 ( ) F AG N B ECH M D$$  A . 2 D E = 3 M N $$B.$$  3 D E = 2 M N $$ C.$$  3 \angle A = 2 \angle F   D . 2 \angle A = 3 \angle F $$</t>
+  </si>
+  <si>
+    <t>三个互不相同的质数相加,和为40,这三个质数的乘积是  。</t>
+  </si>
+  <si>
+    <t>12.生产一批机器零件共350个,甲先做2天,乙加人合作,又经过2天完成任务;如果乙先做2天,甲加入合作需要再经过3天完成任务,问两人每天各做多少个零件?</t>
+  </si>
+  <si>
+    <t>4. 把棱长为8dm的正方体木料锯成两个长方体,表面积增加了( )$$  d m ^ { 2 } $$</t>
+  </si>
+  <si>
+    <t>2. 艾迪想了一个三位质数,各位数字都不相同,如果个位数字等于前两个数字的和,那么这个数的个位数是___.( )A. 1 B. 3 C. 7 D. 9</t>
+  </si>
+  <si>
+    <t>9. 甲、乙二人同时从A地去B地,甲每分钟行80米,乙每分钟行120米,乙到达B地后立即返回,并与甲相遇,相遇时,甲还需行5分钟才能到达B地,A、B两地相距多少米?</t>
+  </si>
+  <si>
+    <t>10. 客车和货车分别从甲、乙两地同时出发,相向而行,经过$$  \frac { 4 } { 5 } $$ 小时相遇,已知客车与货车的速度比是3:2,客车行完全程一共要用多少小时?(5分)</t>
+  </si>
+  <si>
+    <t>&amp;类型五 公式变形求解5. 已知$$  x + y = 3 ,   x y = - 7 $$,求下列各式的值:$$  ( 1 ) x ^ { 2 } + y ^ { 2 } ;   ( 2 ) x ^ { 2 } - x y + y ^ { 2 } ; $$(3)$$  ( x - y ) ^ { 2 } $$</t>
+  </si>
+  <si>
+    <t>5. 如果将一个实心的楔形圆柱体金属零件放入一个盛有水的足够高的圆柱形容器中,尺寸如图所示,那么该容器的水位将上升多少厘米? 3cm 3cm2cm2cm</t>
+  </si>
+  <si>
+    <t>3.一列火车10分钟行驶16.8km,照这样的速度,,这列火车从甲城到乙城共行1小时40分钟,甲、乙两城之间的铁 多少千米?(5分)</t>
+  </si>
+  <si>
+    <t>B组4.如图1,点A,E,F,C在一条直线上,CF,过点E,F分别作$$  D E \bot A C $$,$$  B F \bot A C $$.(1)若$$  A B = C D $$,试说明BD平分EF.(2)若将△DEC的边DC沿AC方向移动变为图2时,其余条件不变,上述结论是否成立?请说明理由.BBA E G F C A. E E CGD D</t>
+  </si>
+  <si>
+    <t>2.在下图中,正确画出AC边上高的是( ).B BEA E C A CA BB BE A C E A CC D</t>
+  </si>
+  <si>
+    <t>三、计算。(28分)1.直接写出得数。(6分)$$  1 7 5 \% + \frac { 1 } { 4 } =   0 . 7 5 \div 1 5 =   1 1 \frac { 2 } { 7 } - 2 \frac { 4 } { 5 } + \frac { 5 } { 7 } - 0 . 2 = $$$$  \frac { 3 } { 5 } - \frac { 1 } { 2 } =   2 4 \times ( \frac { 3 } { 4 } + \frac { 5 } { 6 } - \frac { 2 } { 3 } ) =   8 0 \% \times \frac { 2 } { 3 } + \frac { 1 } { 3 } \div \frac { 5 } { 4 } = $$</t>
+  </si>
+  <si>
+    <t>$$ \frac{8}{13}\div \frac{19}{26}=2 $$</t>
+  </si>
+  <si>
+    <t>15.我上山时走720米用了18分钟,按原路返 上山速度比下回只用了15分钟。 山速度慢多少?</t>
+  </si>
+  <si>
+    <t>13已知关于x,y的方程组$$\left\{ \begin{matrix}   x + 2 y = 3 ,  \\   2 x + y = 6 a  \end{matrix} \right.$$的解满足不等式$$  x + y &gt; 3 $$,则a的取值范围是___.</t>
+  </si>
+  <si>
+    <t>9. 某家商店的账目记录显示,某天卖出39支牙刷和21盒牙膏,收入396元;另一天,以同样的价格卖出同样的52支牙刷和28盒牙膏,收入518元.这个记录是否有误?如果有误,请说明理由.</t>
+  </si>
+  <si>
+    <t>【235】(2014·陕西·7·)下列函数中,满足$$  f ( x + y ) = f ( x ) f ( y ) $$”的单调递增函数是( )。$$  A . f ( x ) = x ^ { \frac { 1 } { 2 } }   B . f ( x ) = x ^ { 3 } $$$$  C . f ( x ) = ( \frac { 1 } { 2 } )   D . f ( x ) = 3 ^ { x } $$</t>
+  </si>
+  <si>
+    <t>一张纸,剪去一半后,又剪去剩下的一半,最后剩下的是这张纸的几分之几?</t>
+  </si>
+  <si>
+    <t>3.算一算。$$  \frac { 7 } { 1 2 } + \frac { 1 } { 1 0 } =   \frac { 4 } { 9 } + \frac { 5 } { 8 } =   \frac { 1 7 } { 2 4 } - \frac { 1 } { 1 2 } =   \frac { 6 } { 7 } + \frac { 5 } { 6 } + \frac { 2 } { 3 } = $$</t>
+  </si>
+  <si>
+    <t>8.线段AB有___个端点,射线CD有___个端点.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. 若等腰三角形一边长为20,三条中位线之和为32,则等腰三角形各边长分别为 </t>
+  </si>
+  <si>
+    <t>二、同学们进行团体操表演,排成9个方阵,每个方阵每行站31人,站31行。估一估,参加团体操表演的学生大约有多少人?</t>
+  </si>
+  <si>
+    <t>5.春节期间,某商场计划购进甲、乙两种商品,已知购进甲商品2件和乙商品3件共需270元,购进甲商品3件和乙商品2件共需230元.求甲、乙两种商品每件的进价分别是多少元.</t>
+  </si>
+  <si>
+    <t>9、一件商品,原价比现价少20%,现价是1028元,原价是多少元?</t>
+  </si>
+  <si>
+    <t>4. 3箱桃子重54千克,2箱梨重48千克。平均每箱桃子重还是每箱梨重?4分)</t>
+  </si>
+  <si>
+    <t>D是半径$$  O C 上 一 点 $$,且$$  O D = 4 $$ A.B是DO上的两个AC</t>
+  </si>
+  <si>
+    <t>一个教室长8米,宽6米,高3.5米,要粉刷教室的墙壁和天花板. 门窗和黑板的面积是22平方米,平均每平方米用涂料0.25千克,粉刷这个教室共需要涂料多少千克?</t>
+  </si>
+  <si>
+    <t>1. 直接写出得数。$$  1 9 + 2 6 =   2 . 4 \times 5 =   6 0 \div 6 \% =   0 . 3 ^ { 2 } = $$$$  1 - \frac { 2 } { 5 } =   0 . 2 7 \div 0 . 1 =   1 0 \div \frac { 5 } { 7 } =   \frac { 2 } { 9 } \times \frac { 3 } { 4 } = $$</t>
+  </si>
+  <si>
+    <t>把红、黄、蓝、绿四种同样大小的小球各3个放在同一个箱子里,一次至少要摸出几个球才能保证摸出2个黄球?(5分)</t>
+  </si>
+  <si>
+    <t>三. 填空题(本题共3小题,每小题5分,共15分.)12.$$  2 . ( \frac { x } { y } + m ) ( x - y ) ^ { 5 } $$的展开式中 $$  x ^ { 2 } y ^ { 3 } $$的系数为-15,则$$  m = \_ $$</t>
+  </si>
+  <si>
+    <t>2. 如图所示,在平面直角坐标系中,O为坐标原点,四边形ABCO为平行四边形,点C在x轴正半轴上,AB=10$$  B C = 6   \angle A = 6 0 ^ { \circ } $$(1)求直线BC的解析式;2)点P从点A出发,以每秒2个单位的速度沿折线A-B-C向终点C运动,分别连接PO、BO△BPO的面积为S,点P运动时间为t,试写出S与t的函数关系式,并直接写出t的取值范围;(3)在(2)的条件下,连接AC,当P在线段AB上,过P作$$  P Q \parallel A C $$交BC于Q、PQ交BO于点K,若PK:$$  Q C = 7 : 6 $$,求四边形OPBQ的面积 A.  F  O  xAC备用图1F BA.0 C x备用图2</t>
+  </si>
+  <si>
+    <t>4.已知直角三角形的周长为$$  3 + \sqrt { 1 3 } $$,斜边为3,则该三角形的面积是___.</t>
+  </si>
+  <si>
+    <t>★2.一种牙膏的包装盒长是14cm,宽是3cm,高是4cm。纸箱长是30cm,宽是24cm,高是15cm(箱内尺寸),这个纸箱最多能放多少盒这种牙膏?</t>
+  </si>
+  <si>
+    <t>24.(共8分)如图,AB是⊙O的直径,点D是AB延长线上的一点,点C在⊙O上,且∠ADC$$  3 0 ^ { \circ } $$,$$  \angle A C D = 1 2 0 ^ { \circ } $$.(1)求证:CD是⊙O的切线; C(2)若⊙O的半径为6,求图中阴影部分的面积.D B 0 A第24题图</t>
+  </si>
+  <si>
+    <t>1. 计算下面各题,想一想有什么规律。$$  1 5 0 \div 0 . 3 = $$$$  1 5 \div 0 . 3 = $$$$  1 . 5 \div 0 . 3 = $$$$  0 . 1 5 \div 0 . 3 = $$$$  2 8 \div 4 0 = $$$$  2 8 \div 4 = $$$$  2 8 \div 0 . 4 = $$$$  2 8 \div 0 . 0 4 = $$$$  4 2 0 \div 7 0 = $$$$  4 2 \div 7 = $$$$  4 . 2 \div 0 . 7 = $$$$  0 . 4 2 \div 0 . 0 7 = $$</t>
+  </si>
+  <si>
+    <t>一、画出下面每个图形的对称轴。</t>
+  </si>
+  <si>
+    <t>3.求下面图形的周长。(单位:cm)5</t>
+  </si>
+  <si>
+    <t>(2)如图②,四边形ABCD为对角互补四边形,且满足$$  \angle B A D = 6 0 ^ { \circ } $$,$$  A B = A D $$,试说明:$$  C A = C B + C D $$);DCB A</t>
+  </si>
+  <si>
+    <t>(1)用直尺和圆规作出$$  \Delta A B C $$ 的三条高AD、BE、CF(不写作法,保留作图痕迹)(2)在(1)的条件下,若$$  A B = 6 ,   B C = 3 $$,$$  C F = 2 $$,则$$  A D = . $$AB C</t>
+  </si>
+  <si>
+    <t>1.小新3天共看了12页课外书,他每天看的页数一定都是4页。(  )</t>
+  </si>
+  <si>
+    <t>4. 如图所示,这6个点可以连出多少条线段?</t>
+  </si>
+  <si>
+    <t>2计算下面图形涂色部分的面积。4cm10cm</t>
+  </si>
+  <si>
+    <t>37、分母是6的最简真分数的和是( )。(关键词最简真分数,和)</t>
+  </si>
+  <si>
+    <t>(3)$$  2 9 \div \square = \bigcirc \cdots \cdots 5 $$,□可能是( ),也可能是( )。</t>
+  </si>
+  <si>
+    <t>甲数是乙数的 $$  \frac { 4 } { 5 } $$,乙数是甲数的( )%,甲数比乙数少( ) $$  \% $$,乙数比甲)多( )%。</t>
+  </si>
+  <si>
+    <t>2024学年第二学期第410.已知:如图1,线段AB,CD相交于点0,连接AD,CB,我们把形如图1的图形称之为“8字形”.试解答下列问题:DA ,DA A3ONC B  BC图1 图2(1)在图1中,请直接写出∠A,∠B,∠C,∠D之间的数量关系(2)仔细观察,在图2中“8字形”的个数有  个;(3)在图2中,若$$  \angle D = 4 0 ^ { \circ } $$,$$  \angle B = 3 6 ^ { \circ } $$,∠DAB和∠BCD的平分线AP和CP相交于点P,并且与CD,AB分别相交于点M,N.利用(1)的结论,试求∠P的度数;(4)如果图2中∠D和∠B为任意角时,其他条件不变,试问∠P与∠D,∠B之间存在着怎样的数量关系,并证明.</t>
+  </si>
+  <si>
+    <t>1.计算下列图形的表面积和体积。hhly H Mly12cm8cm 4cm 4cm5dm 5dm</t>
+  </si>
+  <si>
+    <t>某汽车油箱中存油20kg,油从管道中匀速流出,经210min流尽.(1) 画出表示y与x关系的函数图象.(2) 根据图象回答:经过几分钟,流出的油量是存油量的 $$  \frac { 2 } { 3 } $$?</t>
+  </si>
+  <si>
+    <t>4. 在上午10:30甲乙两地之间的公路上 菜的货车分别从甲乙两地相对而行,速度比为$$  6 : 5 $$两车在距离中点30千米处相遇,此时14:30。那么西车的速度各是多少千米/时?(5分)</t>
+  </si>
+  <si>
+    <t>2.小红在纸上写了一个四位数让小明猜,小明问:“是301吗?”小红说:“一个数字对,且位置正确。”小明又问:“是56吗?”小红说:“两个数字对,但位置都不对。”又问:“是4796吗?”小红说:“数字都对,但位置都不对。”小红写的四位数是( )。A. 6947 B. 7964 C. 6749</t>
+  </si>
+  <si>
+    <t>77 如图,左上角是一个边长为5厘米的正方形,右下角是一个边长为10厘米的正方形,左右两部分阴影面积差 平方厘米.510</t>
+  </si>
+  <si>
+    <t>4. 下列曲线中表示y是x的函数的是( )y yy yx x0 × 0 × 0A. B. C. D.</t>
+  </si>
+  <si>
+    <t>5.已知:如图,在四边形ABCD和Rt△EBF中,$$  A B / / C D $$),$$  C D &gt; A B $$,点C在EB上,$$  \angle A B C = \angle E B F = 9 0 ^ { \circ }   A B = B E = 8 c m $$,$$  B C = B F = 6 c m $$6cm,延长DC交EF于点M.点P从点A出发,沿AC方向匀速运动,速度为2cm/s:同时,点Q从点M出发,沿MF方向匀速运动,速度为1cm/s.过点P作$$  G H \bot A B $$于点H,交CD于点G. 设运动时间为t(s)$$  ( 0 &lt; t &lt; 5 $$).解答下列问题:(1)当t为何值时,点M在线段CQ的垂直平分线上?(2)连接PQ,作$$  Q N \bot A F $$于点N,当四边形PONH为矩形时,求t的值;(3)连接QC,QH,设四边形QCGH的面积为S($$  c m ^ { 2 } $$ ),求S与t的函数关系式;(4)点P在运动过程中,是否存在某一时刻t,使点P在∠AFE的平分线上?若存在,求出t的值;若不存在,请说明理由.E20D C M Q P A H B  F</t>
+  </si>
+  <si>
+    <t>(7)$$  \frac { 8 } { 1 3 } \times \frac { 1 4 } { 1 7 } + \frac { 2 0 } { 1 7 } \times \frac { 8 } { 1 3 } $$</t>
+  </si>
+  <si>
+    <t>1.已知该图形的周长是14.28厘米,它的面积是多少平方厘米?$$ \\  \\  14.28=2.57r  2  \\  \\ $$</t>
+  </si>
+  <si>
+    <t>7.写数。(1)由6个百、3个十和2个一组成的数是( )。</t>
+  </si>
+  <si>
+    <t>$$  \frac { 1 } { 2 } \times \frac { 2 } { 3 } \times \frac { 3 } { 4 } \times \frac { 4 } { 5 } \times \cdots \times \frac { 2 0 1 5 } { 2 0 1 6 } $$</t>
+  </si>
+  <si>
+    <t>18.关于x的方程$$  k x + 5 = 0 $$ 的解是负数,则k的取值范围为  .</t>
+  </si>
+  <si>
+    <t>13. 下列轴对称图形各有几条对称轴?( )条 ( )条 ( )条 ( )条 ( )条 ( )条</t>
+  </si>
+  <si>
+    <t>题型:解答题(解答)化简:$$  ( a + \frac { 1 } { a - 2 } ) \div \frac { a ^ { 2 } - 1 } { a - 2 } . $$</t>
+  </si>
+  <si>
+    <t>题型:填空(填空)若$$  | m - 2 | = | m $$,则m为___.</t>
+  </si>
+  <si>
+    <t>7.学校有6个班,合唱队有48人,其中男同学有20人,女同学有多少人?□○□=□(人)</t>
+  </si>
+  <si>
+    <t>5. 第一个袋子里有$$  \frac { 5 } { 9 } $$kg大豆,若从第二个袋子中倒出 $$  \frac { 2 } { 9 } $$kg大豆到第一个袋子中,则两个袋子就一样重。第二个袋子原来有多少千克大豆?</t>
+  </si>
+  <si>
+    <t>3. 画一画。将图①中的图形绕点A按顺时针方向旋转 $$  9 0 ^ { \circ } $$,图②中的图形绕点B按逆时针方向旋转 $$  9 0 ^ { \circ } $$。A B图① 图②</t>
+  </si>
+  <si>
+    <t>五、请你在下面的方格纸上画一个面积是6平方厘米的长方形和一个面积是4平方厘米的正方形。(每个小方格的边长为1厘米)(6分)</t>
+  </si>
+  <si>
+    <t>1.玩具汽车每辆售价3.5元,王叔叔有100元,最多可买多少辆玩具汽车?</t>
+  </si>
+  <si>
+    <t>1现在有20个红球,14个蓝球,6个绿球.问:(1)至少拿几个球,才能保证拿到绿球?(2)至少拿几个球,才能保证拿到绿球和蓝球?(3)至少拿几个球,才能保证红球、蓝球、绿球每种都至少有2个?(4)至少拿几个球,才能保证有颜色相同的8个球?</t>
+  </si>
+  <si>
+    <t>(3)小明有83本书,小华有17本书,小明给小华多少本书后,小明的书是小华的3倍?设小明给小华x本书,则所列方程是(=-210)</t>
+  </si>
+  <si>
+    <t>4.计算下面立体图形的表面积和体积。(单位:厘米)3-8-10</t>
+  </si>
+  <si>
+    <t>一.填空题。(每题2分,共20分)1.$$  ( ) : 8 = 1 \frac { 1 } { 4 } = 2 5 \div ( ) = \frac { ( ) } { 2 4 } = ( ) \% $$</t>
+  </si>
+  <si>
+    <t>比较 $$  \frac { 2 0 1 8 } { 2 0 1 9 } $$、 $$  \frac { 1 9 9 9 } { 2 0 0 0 } $$、 $$  \frac { 2 0 0 8 } { 2 0 0 9 } $$这三个分数的大小,并按从小到大的顺序排列。</t>
+  </si>
+  <si>
+    <t>20. 新冠病毒防疫期间,草莓摊主小钱为避免交叉感染的风险,建议顾客选择微信支付,尽量不使用现金,早上开始营业前,他查看了自己的微信零钱;销售完20kg后,他又一次查看了微信零钱,由于草莓所剩不多,他想早点卖完回家,于是每千克降价10元销售,很快销售一空,小钱弟弟根据小钱的微信零钱(元)与销售草莓数量(kg)之间的关系绘制了下列图象,请你根据以上信息回答下列问题: 零钱/元(1)图象中A点表示的意义是什么? 650(2)降价前草莓每千克售价多少元?(3)小钱卖完所有草莓微信零钱应有多少元? 50 2025</t>
+  </si>
+  <si>
+    <t>15. 计算下面各题,能简算的要简算。$$  1 0 5 \times 1 2 - 4 8 6 \div 6   \frac { 8 } { 9 } \div \left[ ( \frac { 1 } { 3 } + \frac { 1 } { 4 } ) \times \frac { 1 } { 7 } \right] $$</t>
+  </si>
+  <si>
+    <t>5. 试根据函数$$  y = 3 x - 1 5 $$的性质或图象,确定x取何值时:(1)$$  y &gt; 0 ;   ( 2 ) y &lt; 0 . $$</t>
+  </si>
+  <si>
+    <t>10.(P53-做一做)阳光社区要建一个长320米、宽160米的长方形运动场,请将线段比例尺补充完整,并画出运动场的平面图。(比例尺$$  1 : 8 0 0 0 $$)。0 ()m</t>
+  </si>
+  <si>
+    <t>5. 一个六位数,个位上的数字是5,十万位上的数字是9,任意相邻的三个数字的和都是20。这个数是多少?</t>
+  </si>
+  <si>
+    <t>三、选择题。(5分)1.投3次硬币,有2次正面朝上,1次反面朝上,那么投掷第4次硬币正面朝上的可能性是( )。A.$$  \frac { 1 } { 4 } $$ B.$$  \frac { 1 } { 2 } $$ C.$$  \frac { 2 } { 3 } $$ D.$$  \frac { 1 } { 3 } $$</t>
+  </si>
+  <si>
+    <t>4. 下图是一个长方体纸盒的展开图,做这样的纸盒需要多少平方厘米的纸板?10cm$$ \\ $$5cm2cm</t>
+  </si>
+  <si>
+    <t>1 瓶中装有浓度为15%的酒精溶液1000克,现在又分别倒入100克和400克的两种酒精溶液A、B,瓶里的酒精溶液浓度变成了14%,已知A种酒精溶液是B种酒精溶液浓度的2倍,那么A种酒精溶液的浓度是___%.</t>
+  </si>
+  <si>
+    <t>(2023两巴)小明出生的年份为一个四位数,这个四位数加上它的各位上的数字之和恰好等于2019. 有趣的是,小明哥哥的出生年份的四位数加上它的各位上的数字之和也等于2019. 你知道小明的哥哥比小明大多少岁吗?</t>
+  </si>
+  <si>
+    <t>2. 小明想知道爸爸和爷爷的年龄,爸爸笑着对他说:“我们三个人的年龄和是103岁,爷爷比我大25岁,我比你大27岁。”从爸爸的话中,你能知道三个人的年龄吗?</t>
+  </si>
+  <si>
+    <t>2. 彬彬读一本书,$$  \frac { 1 } { 6 } $$ 第二天读了全书的 $$  \frac { 1 } { 4 } $$。还剩下全书的几分之几没读?</t>
+  </si>
+  <si>
+    <t>五、写出成立的算式。下面算式有误,请移动下面的一根火柴棒,使算式成立。$$  2 1 \div 3 = 3 $$</t>
+  </si>
+  <si>
+    <t>1求右边半圆的周长。$$  d = 1 4 厘 米 $$</t>
+  </si>
+  <si>
+    <t>9例题13已知某比例式的左右内项之比等于左右外项之比,求原比例式的比值.</t>
+  </si>
+  <si>
+    <t>8. 数一数,填一填。( )个锐角 ( )个锐角 ( )个锐角( )个直角 ( )个直角 ( )个直角( )个钝角 ( )个钝角 ( )个钝角</t>
+  </si>
+  <si>
+    <t>zài tóng yí gè suànshì de lǐ tián shàng xiāng tóng de shù五、在同一个算式的 里填上 相同的数。$$  4 0 - 3 = 3 6 +   6 7 + \square = 7 7 - \square $$$$  8 1 - 8 = 7 5 +   3 2 + 3 2 = 3 2 - 5 3 $$</t>
+  </si>
+  <si>
+    <t>1.比一比。$$  \frac { 1 } { 3 } \textcircled { } \frac { 1 } { 2 }   \frac { 1 } { 4 } \textcircled { } \frac { 1 } { 5 } $$</t>
+  </si>
+  <si>
+    <t>,11(2023西附)某个整数除29、56的余数分别是$$  a + 3 $$,这个数可能是多少?</t>
+  </si>
+  <si>
+    <t>折纸的智慧大多数同学都折过纸,但只有少数人折纸是为了研究其中隐藏的数学知识。下面我们用一张长方形纸折一折,再想一想。(1)把一张长方形纸折一折,剪出一个正方形,再沿对角线对折(如右图),看一看,折出了几个完全一样的直角三角形?(2)找到正方形每条边的中点,折出一个小正方形(如下图),想一想大正方形的面积是小正方形的几倍?(3)用一张正方形纸折一折,使折痕经过正方形的中心(如下图),想一想折痕两边的部分有什么关系?你还能想到什么样的折法?</t>
+  </si>
+  <si>
+    <t>有七个同学A、B、C、D、E、F、G:(1)如果B一定要站在C的左边(可以不相邻),有___种排法.(2)如果其中A、B、C以从左至右的顺序出现,有___种排法.</t>
+  </si>
+  <si>
+    <t>2.如图,直角三角形ABC中的空白部分是正方形,正方形的一个顶点D将这个直角三角形的斜边分成两部分,已知$$  A D = 4 $$厘米,$$  C D = 6 $$厘米,求阴影部分面积。ADF B E C</t>
+  </si>
+  <si>
+    <t>如图,边长为2的正六边形ABCDEF中,放置了一个各边与大正六边形平行且边长为1的小正六边形 $$  A _ { 1 } B _ { 1 } C _ { 1 } D _ { 1 } E _ { 1 } F _ { 1 } $$,则图中阴影部分的面积占总面积的几分之几?A F$$  A _ { 1 }   F _ { 1 } $$$$  B _ { 1 }   E $$ FBny$$  C _ { 1 } $$ $$  D $$C D</t>
+  </si>
+  <si>
+    <t>4 如图,一次函数$$  y = - k x + n ( k \neq 0 ) $$与x轴、y轴分别交于点AB两点,与反比例函数$$  y = \frac { k } { x } ( k \neq 0 ) $$交于C、D两点,且CD两点分别是线段AB的三等分点,若$$  S _ { \Delta A O B } = \frac { 9 } { 4 } $$,则$$  n = $$( ).AyAO D xCB.A. -$$  \sqrt { 2 } $$ B. -$$  \frac { 3 } { 2 } \sqrt { 2 } $$ C. -2$$  \sqrt { 2 } $$ D. -$$  \frac { 5 } { 2 } \sqrt { 2 } $$</t>
+  </si>
+  <si>
+    <t>二、想一想,填一填。1. 1 2 3 13 2 1 3 22 3 2 311 13 23 4 14 1 2 22 1 4 3 33 3 4 1 22 2 1 41 4 3(1)第一个图案用的是相同的三角形,拼接处三角形的每个角正好用了( )次。每个三角形的内角和是( ),所以( )个( )正好是( )。</t>
+  </si>
+  <si>
+    <t>3. 张阿姨给小豆丁买了一盒奶粉,生产日期是2019年3月15日,保质期是18个月。张阿姨2020年10月20日还能把奶粉给小豆丁喝吗?(6分)</t>
+  </si>
+  <si>
+    <t>(2)把一个棱长为10cm的正方体铁块熔铸成一个底面直径为20cm的圆锥形铁块,这个圆锥形铁块的高约是多少厘米?(得数保留整厘米数。)</t>
+  </si>
+  <si>
+    <t>(3)少先队员采集树种,第一小队采集了$$  \frac { 7 } { 2 } $$ 千克,第二小队比第一小队多采集$$  \frac { 1 } { 2 } $$ 千克,第三小队比第二小队少采集$$  \frac { 1 } { 4 } $$ 千克。第三小队采集多少千克?</t>
+  </si>
+  <si>
+    <t>综合运用4. 将四个这样的糖果盒(如图)包装成一包,怎样包才能最节约包装纸?(接口处不计)20 cn12cm</t>
+  </si>
+  <si>
+    <t>1. 求涂色部分的面积。8cmOGLIGHD6 cm 3cm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>(1)画出下面各个轴对称图形的所有对称轴。</t>
+  </si>
+  <si>
+    <t>2. 画出下一组图形。(1)(2)___</t>
+  </si>
+  <si>
+    <t>2. 原来甲仓库的粮食质量是乙仓库的 $$  \frac { 2 } { 3 } $$,后来甲仓库增加粮食50t,这时甲仓库的粮食比乙仓库多 $$  \frac { 1 } { 6 } $$。现在甲仓库有粮食多少吨?</t>
+  </si>
+  <si>
+    <t>A. C. 32.(1)两根铁丝,第一根用去$$  \frac { 1 } { 3 } $$ 米,$$  \frac { 1 } { 3 } $$两根铁丝正好都剩下1米。比较原来两根铁丝的长短,结果是(  )。   A.第一根长 B.第二根长 C. 一样长 D.无法确定</t>
+  </si>
+  <si>
+    <t>答:是2厘米。4圆形钟面上分针长12厘来,分针走一圈,针尖走过的距离是多少厘米?$$ c=2 \pi r $$</t>
+  </si>
+  <si>
+    <t>1写出下面每组数的最大公因数和最小公倍数。8和10 51和3 5和412和18 9和1 11和33</t>
+  </si>
+  <si>
+    <t>1做一做,画一画。A12B(1)把图形1绕A点顺时针旋转 $$  9 0 ^ { \circ } $$。(2)把图形2绕B点顺时针旋转$$  9 0 ^ { \circ } $$。</t>
+  </si>
+  <si>
+    <t>27.如图, $$  \Delta A B C $$,作边AC的垂直平分线交边AC于点D,交边BC于点E(点E不与点B、C重合),联结AE.(1)依题意用直尺、圆规补全图形(保留作图痕迹,不用写作图过程和结论);(2)如果$$  A E = B E $$,试说明$$  \Delta A B C $$是直角三角形的理由.AnB C</t>
+  </si>
+  <si>
+    <t>23. 已知$$  2 ^ { a } = 5 ^ { b } = 1 0 0 $$,求证:$$  \frac { 1 } { a } + \frac { 1 } { b } = \frac { 1 } { 2 } $$</t>
+  </si>
+  <si>
+    <t>3. 脱式计算,能简算的用简便方法计算。(16分)$$  \frac { 5 } { 7 } + \frac { 3 } { 4 } - ( \frac { 5 } { 7 } - \frac { 3 } { 4 } )   1 - ( \frac { 5 } { 1 2 } + \frac { 1 } { 3 } ) + \frac { 1 } { 3 } $$$$  \frac { 1 } { 2 } + ( \frac { 2 } { 3 } - \frac { 1 } { 4 } )   \frac { 4 } { 5 } - ( \frac { 2 } { 1 5 } + \frac { 1 } { 3 } ) $$</t>
+  </si>
+  <si>
+    <t>21.1. ★★★(工程问题)甲、乙两人共同加工一批零件,两人合作14天可完成,结果两人合作了10天后乙另有任务,剩下的由甲单独做。如果甲仍按原来的工效,还需7天完成。为了能如期完成任务,甲单独做时采用了新技术,使工效提高了80%。这样不仅如期完成任务,还多做4个零件,问原计划一共要加工多少个零件?(8分)</t>
+  </si>
+  <si>
+    <t>函数的三种表示方法:</t>
+  </si>
+  <si>
+    <t>【题目8】已知函数$$\left\{ \begin{matrix}   - \frac { 1 } { 2 } x + m , x &gt; m  \\   2 x - m , x \leq m  \end{matrix} \right.$$,其中m为常数,该函数的图象记为G. 当$$  m = 4 $$时,当自变量x的取值范围在2a和 之间时,函数的最大值为 $$  y _ { 1 } $$,最小值为 $$  y _ { 2 } $$,当$$  y _ { 1 } - y _ { 2 } = 5 $$时,求a的值;</t>
+  </si>
+  <si>
+    <t>10. 一个正方体的棱长和是60cm,它的体积是( ) $$  c m ^ { 3 } $$。</t>
+  </si>
+  <si>
+    <t>7. 某单位的职工到校植树,其中有男职工,也有女职工,并有$$  \frac { 1 } { 3 } $$ 的职工各带一个孩子参加,男职工每人种13棵树,女职工每人种10棵树,每个小孩种6棵,他们共种了216棵树,那么其中女职工有多少人?</t>
+  </si>
+  <si>
+    <t>30. 六一班48人,六二班40人。现从两个班中评选11名优秀学生干部,如果按人数分配。六一班评选多少名优秀学生干部(4分)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 有24根同样长的火柴棒,小雪先用部分火柴棒在桌面上摆了六个同样大的三角形,然后用剩余的火柴棒摆了一些正方形.那么,正方形最多能摆  个.</t>
+  </si>
+  <si>
+    <t>2.某班46人,从A、B、C、D、E五位候选人中选班长,每人只能投一票。投票结束(没人弃权),A得了25票,B得的票数居第二位,C、D得的票数同样多,E得的票数最少,只得了4票,那么B得了多少票?</t>
+  </si>
+  <si>
+    <t>周六如图,是由一些奇数排成的数阵。(1)设框中的第一个数为x,则框中这四个数和为___,1 3 5 7 9(2)若这样框出的四个数的和200,求这四个数。11 13 15 17 19(3)是否存在这样的四个数,使它们的和为8096?请说明理由。21 23 25 27 29</t>
+  </si>
+  <si>
+    <t>7. 如图,这些图形都是正方体的展开图吗?如果不能确定,折一折,试一试。你还能再画出一些正方体的展开图吗?</t>
+  </si>
+  <si>
+    <t>7. 李小芳在做一道加法题时,把加数258看成了285,算得的和是786。这道题的正确得数是()。</t>
+  </si>
+  <si>
+    <t>六一前夕,某商场准备来购A,B两种品牌的卡通笔袋进行销售,若购进A品牌笔袋3个,B品牌笔袋2个,需要46元;若购进A品牌笔袋5个,B品牌笔袋8个,需要114元.(1)求每个A品牌笔袋和每个B品牌笔袋的进价分别是多少元;(2)该商场计划用不超过7.220元采购A,B两种品牌的笔袋共800个,其中B品牌笔袋的数量不超过400个,求该商场共有几种进货方式;</t>
+  </si>
+  <si>
+    <t>1.某公司在甲、乙、丙、丁四个地区分别有150个、120个、180个、150个销售点.公司为了调查产品的销售情况,需从这600个销售点中抽取一个样本量为100的样本,记这项调查为①;在丙地区中有20个特大型销售点,要从中抽取7个调查其销售收入和售后服务等情况,记这项调查为②.完成这两项调查宜分别采用什么方法?</t>
+  </si>
+  <si>
+    <t>6. 公股定理神奇而美丽,它的证法多种多样,在学习了教材中介绍的拼图证法以后,小华突发灵感,了如图拼图:两个全等的直角三角板ABC和直角三角板DEF,顶点F在BC边止,顶点C、D重合,连接AE、EB、设AB、DE交于点G.$$  \angle A C B = \angle D F E = 9 0 ^ { \circ }   B C = E F = a ,   A C = D F = b ( a &gt; b ) $$$$  A B = D E = c $$请你回答以下问题EA GC(D) F B(1)请猜想AB与DE的位置关系,并加以证明.(2)填空:$$  ) 填 空 : S 四 边 形 A D B E = \_ ( 用 含 有 c 的 代 数 式 表 示 $$(3)请尝试利用此图形证明勾股定理.</t>
+  </si>
+  <si>
+    <t>(3)$$  a ^ { 2 } - 6 a b + 9 b ^ { 2 } - 1 6 $$</t>
+  </si>
+  <si>
+    <t>⑥求曲线$$  y = 5 \sqrt { x } $$ 的与直线$$  y = 2 x - 4 $$平行的切线方程.</t>
+  </si>
+  <si>
+    <t>2、要使$$  \frac { 4 } { x } $$ 是真分数,同时使$$  \frac { 5 } { x } $$ 是假分数,x应该是( )A、5 B、4 C、3</t>
+  </si>
+  <si>
+    <t>$$  3 8 . A = \left\{ x | x &lt; 0 \right\} , B = \left\{ x | - 2 \leq x &lt; 3 \right\} $$,则$$  A \cap B = \left\{ \right\} $$A [-2,0)B ∅$$  C ( - \infty , 0 ) $$</t>
+  </si>
+  <si>
+    <t>4. (10分)从下图右边的图形里选出1个图形,能和左边的图形拼成一个正方形.( 1① ② ③ ④A. 图1 B. 图2 C. 图3 D. 图4</t>
+  </si>
+  <si>
+    <t>13. 如图,在$$  \Delta A B C $$中,D是BC上一点,$$  B D = A D $$,以AD为直径的⊙O经过点C,交AB于点E,过点E作⊙O的切线交BD于点F.(1)求证:$$  E F \bot B C . $$ A(2)若$$  C D = 5 ,   \tan B = \frac { 2 } { 3 } $$,求DF的长. EB F D C(第13题)</t>
+  </si>
+  <si>
+    <t>已知$$  2 ^ { x } = 8 , 2 ^ { y } = 4 $$,那么 $$  2 ^ { x + y } $$的值是  .</t>
+  </si>
+  <si>
+    <t>4.下列计算正确的是$$  A . ( - x ) ^ { 2 } + x = 2 x ^ { 3 } $$B.$$  ( - 2 x ^ { 2 } y ) ^ { 3 } = - 6 x ^ { 5 } y ^ { 3 } $$$$  C . ( - a ) ^ { 1 0 } \div a ^ { 7 } = - a ^ { 3 } $$D.$$  ( - 1 - x ) ^ { 2 } = x ^ { 2 } + 2 x + 1 $$</t>
+  </si>
+  <si>
+    <t>6. 如图,在等腰$$  R t \Delta A B C $$中,$$  \angle B A C = 9 0 ^ { \circ }   A B = A C $$,BD为$$  \Delta A B C $$的角平分线,过点C作$$  C E \bot B D 交 $$BD的延长线于点E,若$$  C E = \frac { 5 } { 3 } $$,则BD的长为___.AD EB C</t>
+  </si>
+  <si>
+    <t>45726 2022~2023学年华附高一下学期期末 A 1 1 2 B如图,四棱锥P-ABCD中,$$  \angle A B C = \angle B C D = 9 0 ^ { \circ } $$,△PAD是以AD为底的等腰直角三角形,$$  A B = 2 B C = 2 C D = 4 $$,E为BC中点,且$$  P E = \sqrt { 1 1 } $$ P2(1)求证:平面PAD⊥平面ABCD; 又 D2 C(II)求直线PE与平面PAB所成角的正弦值.解:取AD中点F.连接EF )$$ 6 $$F E 2B$$ DF \bot AD $$.$$ EF \parallel AB $$ ∴$$ EF \bot AD $$ A 10 1&amp; 2</t>
+  </si>
+  <si>
+    <t>13.如图,正方形ABCD的边长 A DM为8,点M在DC上,且 N$$  D M = 2 $$,N是AC上的一动B C点,则$$  D N + M N $$ 的最小值是10.</t>
+  </si>
+  <si>
+    <t>-48. 记$$  S _ { n } $$ 为等比数列{ $$  a _ { n } $$}的前n项和,若$$  S _ { 4 } = - 5   S _ { 6 } = $$ $$  2 1 S _ { 2 } $$,则$$  S _ { 8 } = $$$$ :(1-q^{2})(q^{4}+q^{2}-20)=0 $$</t>
+  </si>
+  <si>
+    <t>32. 认真阅读下面的材料,完成有关问题,材料:在学习绝对值时,一般地,点A,B在数轴上分别表示有理数a,b,那么A,B之间的距离可表示为$$  | a - b | $$|. 例如:数轴上-1与3对应的点之间的距离为| B $$  | - 1 - 3 | = 4 $$.(1)点A,B,C在数轴上分别表示有理数x,-2,1,那么C到B的距离为  ,A到B的距离与A到C的距离之和可表示为 (用含绝对值的式子表示);(2)利用数轴探究:当x取何值时,$$  | x - 3 | + | x - 2 $$有最小值,最小值是多少?(3) ①根据绝对值的几何意义可以解一些绝对值不等式:0 1 2 3 4 -4-3-2-1 0 1 2 3 4由图可得出:绝对值不等式$$  | x | &gt; 1 $$的解集是$$  x &lt; - 1 $$或$$  x &gt; 1 $$;绝对值不等式$$  | x | \leq 3 $$的解集,是-$$  3 \leq x \leq 3 $$,则:不等式$$  | x | \geq 4 $$的解集是②利用数轴解不等式$$  | x + 1 | + | x - 3 | &gt; 4 $$,并加以说明.</t>
+  </si>
+  <si>
+    <t>19. 如图,在四棱锥P-ABCD中,已知底面ABCD为矩形,侧面PAD是正三角形,侧面PAD⊥底面ABCD,M是棱PD的中点,$$  A D = 2 $$.(1)证明:AM⊥平面PCD;2. 若二面角M-BC-D为$$  \frac { \pi } { e } $$ 求异面直线AB与PC所成角的正切值. P  M  A  D1 B N C</t>
+  </si>
+  <si>
+    <t>5. 一件羽绒服秋季售价是245元。(1) 冬季售价比秋季提高 $$  \frac { 2 } { 7 } $$,这件羽绒服冬季售价是多少元?(2)春季售价又比冬季下降 $$  \frac { 1 } { 5 } $$,这件羽绒服春季售价是多少元?</t>
+  </si>
+  <si>
+    <t>2. 在平面直角坐标系中,A(a,0),B(0,b),a,b满足$$  ( a + 1 ) ^ { 2 } + \sqrt { b - 3 } = 0 $$,点C与点A关于y轴对称.(1)请直接写出B,C两点的坐标;(2)如图1,分别以AB,BC为直角边向右侧作等腰Rt{△}BAD和等腰Rt{△}BCE,连接DE交x轴于点M,连接BM,求证:$$  B M \bot D E $$;(3)如图2,点F为y轴上一动点,点($$  G ( m , - 3 m + 3 ) $$在直线BC上,若连接E,F,G三点(按逆时针顺序排列)恰好围成一个等腰直角三角形,请直接写出符合要求的m的值为___.y yB BFE EA O C M x OC xGD</t>
+  </si>
+  <si>
+    <t>1.下列说法正确的是( )。A.含有未知数的式子一定是方程B.方程一定是等式,但等式不一定是方程C. 等式的两边同时乘或除以相同的数,等式两边仍然相等$$  D . 4 x + 6 = 3 4 $$的解是7</t>
+  </si>
+  <si>
+    <t>6. 若$$  y = ( m - 1 ) x ^ { | m | } + m + 1 $$ 是关于x的一次函数,则m=___.</t>
+  </si>
+  <si>
+    <t>4. 说说要解决什么问题,要找什么信息并解答。7只一共有多少只 ?$$  \boxed { } \textcircled { } \boxed { } = \boxed { } ( 只 ) $$</t>
+  </si>
+  <si>
+    <t>3.4时20分,时针和分针的夹角是___度</t>
+  </si>
+  <si>
+    <t>2. 一辆轿车从甲地开往乙地,如果每小时行驶90km,4小时可到达乙地;如果每小时行驶60km,需多少小时到达乙地?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.如图25-14(1)所示的是一枚质地均匀的正四面体骰子,它有四个面并分别标有数字1,2,3,4. 如图25-14(2)所示,正方形ABCD顶点处各有一个圈.跳圈游戏的规则为:游戏者每掷一次骰子,骰子着地一面上的数字是几,就沿正方形的边顺时针方向连续跳几个边长.如:若从圈A起跳,第一次掷得3,就顺时针连续跳3个边长,落到圈D;若第二次掷得2,就从D开始顺时针连续跳2个边长,落到圈B;....设游戏者从圈A起跳. (1)嘉嘉随机掷一次骰子,求落回到圈A的概率 $$  P _ { 1 } $$;(2)淇淇随机掷两次骰子,用列表法求最后落-到圈A的概率 $$  P _ { 2 } $$,她与嘉嘉落回到圈A的可能性一样吗? </t>
+  </si>
+  <si>
+    <t>10.某店为了提高销售额,先将所有衣服在原来标价的基础上提价30%,然后宣传:“所有衣服按八折优惠!”原来标价为200元的衣服,现在的售价是(  )元。</t>
+  </si>
+  <si>
+    <t>5. 学科素养 计算:$$  \frac { 1 } { 2 \times 4 } + \frac { 1 } { 4 \times 6 } + \frac { 1 } { 6 \times 8 } + x + \frac { 1 } { 2 0 2 0 \times 2 0 2 2 } + \frac { 1 } { 2 0 2 2 \times 2 0 2 4 } $$</t>
+  </si>
+  <si>
+    <t>5.(易错题)某届“数学解题能力展示”活动初试分为三个组别。其中甲、乙两个组的人数占总人数的 $$  \frac { 1 5 } { 1 6 } $$,乙、丙两个组的人数占总人数的 $$  \frac { 1 } { 2 } $$。乙组的人数占总人数的几分之几?</t>
+  </si>
+  <si>
+    <t>长方形草地里有一条宽1m的曲折小路,如图所示。草坪的面积多大?18m</t>
+  </si>
+  <si>
+    <t>2、每日一题:乐乐在商店买了一支钢笔,付了20元,由于收银员阿姨看错了价格,找回了14.1元,乐乐发现阿姨多找了3.6元,这支钢笔实际是多少元?</t>
+  </si>
+  <si>
+    <t>下图中“风车”(涂色部分)的面积是多少平方厘米?4 cm4 cm</t>
+  </si>
+  <si>
+    <t>★★变式 BBE交于点E.一条直角边始终过点D,另一条直 与正方形ABCD的外角平分线(1)猜想DP与EP的数量关系.(不必证明)P放在正方形ABCD的边AB上(2)如图②,,当直角顶点P运动到AB的延长线果成立,请给出证明;如果不成立,请说明理由.(3)如图③③,当直角顶点P运动到BA的延长线上 1)中猜想的结论还成立吗?如D还成立吗?如果成立,请给出证明:如果不成立,请请说明理由.,猜想DP与EP的数量关系的结DC EA PE D CB图① A BA PB P图③ E</t>
+  </si>
+  <si>
+    <t>式$$ \angleA+2= \angle B  10: \angle B:45 $$ (舍4. 新定义新运算问题 对有理数a,b,c定义一种新运算,规定$$  F ( a , b , c ) = a ^ { 2 } + b ^ { 2 } + 2 c $$,例:$$  F ( 1 , 2 , 3 ) = 1 ^ { 2 } + 2 ^ { 2 } + 2 \times 3 = 1 1 $$(1)求F(2,3,1);$$ =2^{2}+3^{2}+2 \times 1=4+9+2=15 $$(2)如图,在长方形ABFG和长方形BCDE中,$$  A B = 2 x ,   A G = 4 x   , B C = $$2y,$$  C D = y $$,若$$  2 x + y = 5   , F ( 3 x + y , x - 3 y , - x ^ { 2 } - 6 y ^ { 2 } ) = 0 $$,连接AF和AD,=求图中阴影部分的面积;$$ (3x+y)^{2}+(x-3y)^{2}+2 \times(-x^{2}-6y^{2})=0  4x^{2}-y $$$$  n o ( N 3 ) $$)若$$  F ( x , 2 y , 3 y + x y ) = - 3 $$,求$$  2 x + y $$的值.$$ S=8x^{2}+2xy^{2}-4x^{2}-y $$G F$$ =4x^{2}+y^{2}-xy $$$$ 4=72^{\circ} $$E D(是完美 4xy形 A B C2x 2y</t>
+  </si>
+  <si>
+    <t>3. 5个人各拿一个水桶在水龙头前等候取水,他们取水所需的时间分别是1分,2分,3分,4分和5分。如果只有一个水龙头,怎样安排他们的取水顺序,才能使5个人排队和取水的总时间最短?</t>
+  </si>
+  <si>
+    <t>举一反三1. 为了节约用水,某市自来水公司规定:每人每月用水不超过3t时,按每吨2.6元收费,超过3t的部分按每吨3.5元收费。照这样计算,贝贝家5口人,上月共用了16.4t水,那么她家应交水费多少元?</t>
+  </si>
+  <si>
+    <t>6.王芳在计算13.68除以一个数时,由于商的小数点向右多点了一位,结果是18,这道题的除数是( )。</t>
+  </si>
+  <si>
+    <t>有甲乙丙三个停车场,有若干辆汽车,每次由车最少的停车场向其他停车场各调1辆车,经过2021次这样的操作之后,甲有9辆车,乙有10辆车,丙有11辆车,那么原来甲乙丙各有多少辆车?</t>
+  </si>
+  <si>
+    <t>2.用竖式计算。(4分)$$  1 2 . 8 + 7 . 5 2 =   4 3 . 5 - 7 . 8 9 = $$</t>
+  </si>
+  <si>
+    <t>4.在歌咏比赛中,评委老师给小倩打出的分数如下表。(6分)评委 江老师 丁老师 李老师 卓老师 方老师 王老师 刘老师评分 90 89 62 88 92 86 98按照比赛规则要去掉一个最高分和一个最低分,你能算出小倩的最后平均得分吗?</t>
+  </si>
+  <si>
+    <t>李叔叔出差,在一家宾馆住了8天,付了800元后,找回了32元。这家宾馆每天的住宿费是多少元?</t>
+  </si>
+  <si>
+    <t>6. 按要求画图。对称轴(1)以直线l为对称轴,画图A的轴对称图形图B。(2)把图A绕点O按顺时针方向旋转 $$  9 0 ^ { \circ } $$,得到图C。(3)把图A先下移2格,再向右平移7格,得到图D。(4)图A的面积是( ) $$  c m ^ { 2 } $$。(方格中每个小正方形的边长均为1cm)①</t>
+  </si>
+  <si>
+    <t>3.一台压路机,每分钟前进15米,压过路面的宽度是2米,这台压路机30分钟可以压路面多少平方米?(5分)</t>
+  </si>
+  <si>
+    <t>3. 如图,点O是△ABC和△DEF的位似中心,$$  O C = O F $$,$$  O A = O D $$,那么$$  \Delta A B C $$和△DEF的相似比等于___.AE、0CFBD</t>
+  </si>
+  <si>
+    <t>13. 在○里填上“&gt;”“&lt;”或“=”。$$  4 . 8 5 \bigcirc 4 . 5 8   3 . 0 7 \bigcirc 3 . 7 0   4 . 5 0 \bigcirc 4 . 5 $$$$  3 千 米 5 0 米 \textcircled { } 3 . 5 千 米   6 . 0 5 吨 \textcircled { } 6 吨 5 千 克   8 米 7 分 米 \textcircled { } 8 . 0 7 米 $$</t>
+  </si>
+  <si>
+    <t>四、解决问题,1.一个长方形水池,长是15m,宽是8m,池中水深1.57m。 池底有根出水管,内直径2dm。放水时,水流速度为平均每分钟2m。放完池中的水需要多少分钟?</t>
+  </si>
+  <si>
+    <t>6. 8角是元,用小数表示是(  )元。</t>
+  </si>
+  <si>
+    <t>5. 在○里填上“&gt;”“&lt;”或“=”。$$  \frac { 1 0 } { 2 4 } \textcircled { } \frac { 2 0 } { 2 4 }   \frac { 1 0 } { 1 2 } \textcircled { } \frac { 5 } { 6 }   \frac { 9 } { 1 9 } \textcircled { } \frac { 7 } { 1 9 }   \frac { 1 } { 6 } \textcircled { } \frac { 1 2 } { 3 0 } $$$$  \frac { 1 } { 7 } \textcircled { } \frac { 2 } { 2 1 }   \frac { 2 } { 5 } \textcircled { } \frac { 8 } { 2 0 }   \frac { 5 } { 1 6 } \textcircled { } \frac { 9 } { 1 6 }   \frac { 1 4 } { 5 1 } \textcircled { } \frac { 1 4 } { 3 1 } $$</t>
+  </si>
+  <si>
+    <t>(素养提升)根据以下两条信息,可知妈妈收到的验证码是(信息一 信息二$$  5 1 0 6 &gt; \chinese \chinese \chinese &gt; 5 0 1 9   4 9 8 0 &lt; \chinese \chinese \chinese &lt; 5 0 2 1 $$</t>
+  </si>
+  <si>
+    <t>5. 一个圆锥形沙堆,底面周长是25.12米,高是1.8米,用这堆沙在10米宽的公路上铺2厘米厚的路面,能铺多少米?</t>
+  </si>
+  <si>
+    <t>4. 减产“一成五”就是今年的收成是去年的15%。 ( )</t>
+  </si>
+  <si>
+    <t>算一算,并观察这些算式,你发现了什么? 噢,我知道了,一个数如果乘一个小于 可以借助分数的的分数、积..... 意义来解释......$$ \begin{matrix} \frac { 1 } { 2 } \\ \frac { 1 } { 3 } + \frac { 1 } { 4 } \\ \frac { 1 } { 4 } + \frac { 1 } { 4 } = \\ \frac { 1 } { 5 } + \frac { 1 } { 4 } = \end{matrix} $$</t>
+  </si>
+  <si>
+    <t>16. 在平面直角坐标系内有两点A(1,1),B(2,3),若一次函数$$ y = k x + 2 $$2的图象与线段AB有公共点,则k的取值范围为___</t>
+  </si>
+  <si>
+    <t>2. 脱式计算。(能简算的要简算)(12分)$$ 9 6 0 \div ( 1 2 + 9 7 2 \div 2 7 ) 2 5 \times \left[ ( 1 6 0 + 5 1 2 ) \div 3 2 \right] $$</t>
+  </si>
+  <si>
+    <t>三、算一算 ,比一比,你有什么发现?$$ 4 3 0 \div 5 \div 2 = $$$$ 6 4 0 \div 8 \div 5 = $$$$ 4 3 0 \div ( 5 \times 2 ) = 6 4 0 \div ( 8 \times 5 ) = $$我发现:</t>
+  </si>
+  <si>
+    <t>5. 王兰用转笔刀削铅笔,削成的形状如图。铅笔圆柱部分的长度是圆锥部分长度的9倍,那么圆锥部分的体积是这支铅笔体积的( )。A.$$ \frac { 1 } { 9 } $$ B.$$ \frac { 1 } { 1 0 } $$ C.$$ \frac { 1 } { 3 } $$ D.$$ \frac { 1 } { 2 8 } $$</t>
+  </si>
+  <si>
+    <t>2.科技种植园里所种黄瓜和茄子面积的比是$$ 4 : 7 $$,种植黄瓜的面积比茄子少15平方米。园里种了( )平方米的茄子。</t>
+  </si>
+  <si>
+    <t>5.在上学期期末考试中,小娟语文、数学的平均分是93分,如果算上英语,这三科的平均分是95分。你能算出小娟英语考了多少分吗?</t>
+  </si>
+  <si>
+    <t>4. 某市居民用电的电价实行阶梯收费,收费标准如下表:一户居民每月用电量x(度) 电费价格(元/度)$$ 0 &lt; x \leq 2 0 0 $$0.48$$ 2 0 0 &lt; x \leq 4 0 0 $$0.53$$ x &gt; 4 0 0 $$0.78七月份是用电高峰期,小明家计划这个月的电费支出不超过241元,则小明家这个月最多可用电的度数是( ).A. 250 B. 350 C. 450 D. 550</t>
+  </si>
+  <si>
+    <t>11. 在数轴上表示下列不等式的解集.(1)$$ x \geq - 3 $$; (2)$$ x &lt; \frac { 5 } { 2 } ; $$(3)$$ x &gt; 5 ; $$ (4)$$ x \leq - 2 . $$</t>
+  </si>
+  <si>
+    <t>lè le dǎ lán qiú xū yào jǐ xiǎo shí4. 乐乐打篮球需要几小时?下午3时到5时是我打篮球的时间。乐乐</t>
+  </si>
+  <si>
+    <t>10.一个两位小数四舍五入后是9.3,这个两位小数最大是 ),最小是( )。</t>
+  </si>
+  <si>
+    <t>4. 有一块长方体木料,长72厘米,宽60厘米,高36厘米,要把它锯成同样大小的正方体木块,使正方体木块的体积要最大,且木块没有剩余。正方体木块的棱长最长是多少?</t>
+  </si>
+  <si>
+    <t>2. 甲桶的油比乙桶的多$$ \frac { 7 } { 8 } $$千克,现从甲桶取出$$ \frac { 1 } { 3 } $$ 千克油倒入乙桶,这时甲桶的油比乙桶的油还多多少千克?</t>
+  </si>
+  <si>
+    <t>9.盒子里有3个红球,4个黄球和7个黑球,这些球除颜色外其他均相同。从中摸出一个球,摸出___球的可能性最大;至少从中摸出___个球,才能保证三种颜色的球都有。</t>
+  </si>
+  <si>
+    <t>25. 3筐苹果,连筐称一共85千克。如果每个空筐重5千克,这些苹果一共有多少千克?</t>
+  </si>
+  <si>
+    <t>2.在下图中画一画。(1)画出将图中三角形向右平移3格后的图形。(2)画出将图中三角形绕O点顺时针旋转$$  9 0 ^ { \circ } $$ 后的图形。$$  A $$O B</t>
+  </si>
+  <si>
+    <t>7. 下列方程中是关于x的一元二次方程的是( ).(A)$$  x ^ { 2 } + \frac { 1 } { x } = 1 $$ (B)$$  a x ^ { 2 } + b x + c = 0 $$(C)$$  x ^ { 2 } = 0 $$ (D)$$  2 x ^ { 2 } - 1 = 3 y $$</t>
+  </si>
+  <si>
+    <t>10.定义符号min{a,b}含义为:当$$  a &gt; b $$ 时$$  \min \left\{ a , b \right\} = b $$;当$$  a &lt; b $$ 时$$  \min \left\{ a , b \right\} = a $$.如$$  \min \left\{ 1 , - 3 \right\} = - 3   \min \left\{ - 4 , 2 \right\} = - 4 $$.则$$  \min \left\{ - x ^ { 2 } + 1 , - x \right\} $$的最大值是 ( )A.$$  \frac { \sqrt { 5 } - 1 } { 2 } $$ B.$$  \frac { \sqrt { 5 } + 1 } { 2 } $$ C. 1 D. 0</t>
+  </si>
+  <si>
+    <t>22. 在含盐20%的盐水中,加入10克盐和30克水,此时盐水含盐百分比( )。A. 小于20% B.大于20% C.等于20% D.无法比较</t>
+  </si>
+  <si>
+    <t>21. 求未知数x。(6分)$$  \frac { 5 } { 7 } \div x = 4 . 2 \div \frac { 7 } { 1 0 }   x - \frac { 4 } { 9 } - \frac { 5 } { 9 } x = \frac { 2 } { 3 } $$</t>
+  </si>
+  <si>
+    <t>5. 先阅读下列材料,然后解题.材料:因为$$  ( x - 2 ) ( x + 3 ) = x ^ { 2 } + x - 6 $$,所以$$  ( x ^ { 2 } + x - 6 ) \div ( x - 2 ) = x + 3 $$,即$$  x ^ { 2 } + x - 6 $$ 能被$$  x - 2 $$整除.所以$$  x - 2 $$是$$  x ^ { 2 } + x - 6 $$ 的一个因式,且当$$  x = 2 $$时,$$  x ^ { 2 } + x - 6 = 0 $$.(1)类比思考:$$  ( x + 2 ) ( x + 3 ) = x ^ { 2 } + 5 x + 6 $$,所以$$  x ^ { 2 } + 5 x + 6 $$能被 整除,所以是$$  x ^ { 2 } + 5 x + 6 $$ 的一个因式,且当$$ x=-2 $$时,$$  x ^ { 2 } + 5 x + 6 = 0 $$;(2)拓展探究:根据以上材料,已知多项式$$  x ^ { 2 } $$$$  m x - 1 4 $$能被$$  x + 2 $$整除,试求m的值.</t>
+  </si>
+  <si>
+    <t>2.计算下面各题,怎样简便就怎样计算。(8分)$$(1)  \frac { 5 } { 3 } - \frac { 2 } { 7 } - \frac { 5 } { 7 }  \\  \\  \\ $$$$(2)  2 ) \frac { 4 } { 9 } + \frac { 3 } { 7 } + \frac { 5 } { 9 } + \frac { 2 } { 7 }  \\  \\  \\ $$(3)$$  \frac { 3 } { 4 } - ( \frac { 5 } { 6 } - \frac { 1 } { 3 } ) $$ (4)$$  \frac { 1 } { 2 } + \frac { 1 } { 6 } + \frac { 1 } { 1 2 } + \frac { 1 } { 2 0 } + \cdots + \frac { 1 } { 1 1 0 } $$</t>
+  </si>
+  <si>
+    <t>9、求不等式组$$\left\{ \begin{matrix}   x &gt; 0  \\   x \geq a ^ { 2 }  \end{matrix} \right.$$的解集.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. (6分)“油纸伞”是汉族古老的传统工艺品之一(如图1),其制作工艺十分巧妙.如图2,伞圈D沿着伞柄AP滑动时,总有伞骨$$  A B = A C   B D = C D $$. 问:伞柄AP是否始终平分同一平面内两条伞骨所成的∠BAC?请说明理由. A B CD P  图1 图2 </t>
+  </si>
+  <si>
+    <t>5. 在 $$  R t \Delta A B C $$中,$$  \angle C = 9 0 $$,∠A、∠B、∠C所对应的边分别是a、b、c(1)若$$  a = 9 c m $$,$$  b = 1 2 c m $$,则$$  c = \_ c m ; $$(2)若$$  a = 4 0 c m   c = 4 1 c m $$,则$$  b = \_ c m ; $$(3)若$$  a = 7 c m   c = 2 5 c m $$,则这个直角三角形的面积为___ $$  c m ^ { 2 } $$;(4)若$$  c = 2 0 c m ,   a : b = 3 : 4 $$,则点C到AB边的距离是___cm.</t>
+  </si>
+  <si>
+    <t>2024年山东省初中学业水平模拟考试数22.(本小题满分9分)在平面直角坐标系xOy中,二次函数$$  y = a x ^ { 2 } + b x ( a &lt; 0 ) $$的图像上有两点A($$  x _ { 1 } $$ , $$  y _ { 1 } $$)、B($$  ( x _ { 2 } $$ , $$  y _ { 2 } $$),它的对称轴为直线$$  x = t $$(1)当该二次函数图像过点(6,0)时.①求t的值;②当$$  x _ { 2 } - x _ { 1 } = 2 ,   A B / / x $$轴,且到x轴距离为2,求a的值;(2) 当$$  0 &lt; x _ { 1 } &lt; 1 $$时,若对于任意$$  x _ { 1 } + x _ { 2 } = 2 $$,都有$$  y _ { 1 } y _ { 2 } &gt; 0 $$成立,直接写出t的取值范围.</t>
+  </si>
+  <si>
+    <t>22.(共7分)2024年4月,云南西双版纳一年一度的泼水节如期举行如期举行,来自世界各地的游客欢聚一堂,沉浸在欢乐的海洋.为了保障游客的购买需求,某纪念品某纪念品经销店提前购进甲、乙两种纪念品,用1000元购进的甲种纪念品与用800元购进的乙和中纪念品的数量相同,每件甲种纪念品的进价比每件乙种纪念品的进价多10元.求甲、 两种纪念品每件的进价分别为多少元?</t>
+  </si>
+  <si>
+    <t>北京2022年冬奥会开幕式冰花引导牌好美!如图(1)是中国体育代表团的引导牌.观察发现,图(2)中的图案的说法中,不正确的是 旋转等变换得到.下列关于图(2)和图(3)中的图案( )A.图(2)中的图案是轴对称图形B.图(2)中的图案是中心对称图形C.图(2)中的图案绕某个固定点旋转,可以与自身重合将图(3)中的图案绕某个固定点连续旋转若干次,每次旋转 $$  1 2 0 ^ { \circ } $$,可以设计出图(2)中的图AD F$$  S $$M PHN图(1) 图(2) 图(3) B E G 0C(第7题) (第10题)</t>
+  </si>
+  <si>
+    <t>找出8和10的公倍数,2 解决问题。 就知道......一块正方形布料,既可以裁成若干条边长是8cm的方巾,也可以裁成若干条边长是10cm的方巾,且都没有剩余。这块正方形布料的边长至少是多少厘米?</t>
+  </si>
+  <si>
+    <t>5. “$$  \exists x \in R , x + | x | &lt; 0 $$”的否定是 ( )A、日$$  A 、 \exists x \in R , x + | x | \geq 0   B . \forall x \in R , x + | x | \geq 0   C . \forall x \in R ,   x + | x | &lt; 0   D . \exists x \in R ,   x + | x | \leq 0 $$</t>
+  </si>
+  <si>
+    <t>(3)电视剧《西游记》从6月28日开始播放,同年8月1日播放结束,一共播放了( )天。</t>
+  </si>
+  <si>
+    <t>17.(8分)如图,求作一点P,使它到公路AB,AC的距离相等,并且到村庄D和村庄E的距离相等.(保留作图痕迹,不写作法)-BA$$  D ^ { \circ } $$°EC</t>
+  </si>
+  <si>
+    <t>4. 如图,点A、B、C是一个平行四边形的三个顶点,符合条件的平行四边形共有( )个,画出所有符合条件的平行四边形。AB C</t>
+  </si>
+  <si>
+    <t>4.(北京东城区毕业卷)右图是根据图形特征对四边形进行分类的 C AE B情况:若A代表四边形,B代表梯形,C代表平行四边形,则E代 F表( ),F代表( )。-_7</t>
+  </si>
+  <si>
+    <t>1.一组数据2,3,4,x,6的平均数是4,则x是A. 2 B. 3 C. 4 D. 5</t>
+  </si>
+  <si>
+    <t>3. 新颖点生活运用(石景山区·改编)某市举行小学生乒乓球比赛,一共有10支球队参赛,每有6名参赛队员。因为场地原因,暂停比赛。大赛举办方 话通知其中一名队员,再由队员之间互相打电话通知,如果打一个电话需要2分钟, 有队员至少需要多长时间?(10分) ④</t>
+  </si>
+  <si>
+    <t>如图是某月的日历表,在此日历表上可以用一个矩形圈出$$  3 \times 3 $$3个位置相邻的9个数(如6,7,8,13,14,1520,21,22),若圈出的9个数中,最大数与最小数的积为420,则这9个数的和为( )百 一 二三 四五 六1 2 3 45 9 10 1112 16 17 1819 20 21 23 24 2526 27 28 29 30 31A 32B 126C 144D 198</t>
+  </si>
+  <si>
+    <t>$$ 69-()-30=19 $$</t>
+  </si>
+  <si>
+    <t>(4)在一个长30cm,宽20cm的长方形纸片上,剪下一个最大的圆,这个圆的半径是( )cm。</t>
+  </si>
+  <si>
+    <t>1613.(浙江温州)如图,点A的位 86 A置用数对表示是(1,5),线 543段AB绕点B按顺时针方向 2B0 3 45 67 8旋转 $$  9 0 ^ { \circ } $$,点A的对应点$$  A ^ { \prime } $$的位置用数对表示是( )。A.(5,5) B. (5,1) C.(4,1) D.(6,1)</t>
+  </si>
+  <si>
+    <t>2.在○里填上适当的运算符号。(1)$$  \frac { 3 } { 8 } + \frac { 4 } { 9 } + \frac { 5 } { 9 } = \frac { 3 } { 8 } + ( \frac { 4 } { 9 } \textcircled { } \frac { 5 } { 9 } ) $$(2)$$  \frac { 3 } { 8 } + \frac { 4 } { 9 } - \frac { 4 } { 9 } = \frac { 3 } { 8 } + ( \frac { 4 } { 9 } \textcircled { } \frac { 4 } { 9 } ) $$(3)$$  \frac { 8 } { 7 } - \frac { 5 } { 9 } - \frac { 4 } { 9 } = \frac { 8 } { 7 } - ( \frac { 5 } { 9 } \textcircled { } \frac { 4 } { 9 } ) $$(4)$$  \frac { 8 } { 7 } - \frac { 4 } { 9 } + \frac { 4 } { 9 } = \frac { 8 } { 7 } - ( \frac { 4 } { 9 } \textcircled { } \frac { 4 } { 9 } ) $$</t>
+  </si>
+  <si>
+    <t>芳芳C、o.w5.在学校举行的“我是劳动小能手”活动中,获得前四名的同学有小聪、小明、小华、小月,他们四个人中小明没得第一名,这四个人的排名情况一共有多少种可能? 18种</t>
+  </si>
+  <si>
+    <t>3. 林师傅向如图所示的容器(由上、下两个圆柱组成)中高1厘米匀速注油,正好注满。注油过程中,容器中油的高度与 60所用时间的关系如图所示。(容器壁厚度忽略不计) 4020(1)注油的总量和注油的(成正比例。 0(2)把下面的大圆柱形容器注满需()分钟。 1 2 3时间1分(3) 如果下面的大圆柱形容器底面积是96平方厘米,那么大圆柱形容器容积是)立方厘米,上面小圆柱形容器的底面积是 )平方厘米。</t>
+  </si>
+  <si>
+    <t>7如图,将直角梯形ABCD以AB所在直线为轴旋转一周,形成一个圆台,你能算出这个圆台的体积吗?(提示:可以利用圆锥体积来计算)A Dlly $$  4 5 ^ { \circ } $$oB 6 cm C</t>
+  </si>
+  <si>
+    <t>(5)$$  \frac { 3 } { 8 } - \frac { 5 } { 6 } + \frac { 5 } { 8 } - \frac { 1 } { 6 } $$</t>
+  </si>
+  <si>
+    <t>33.下表是新华小学六年级各班人数的统计表。(6分)新华小学六年级各班人数统计图人数30 六(1)班六(2)班六(3)班 25 男生 23 22 24 20女牛 22 25 26 15 1050六(1)班 六(2)班 六(3)班 班级根据表中数据画出条形统计图并回答问题。(1)哪个班的人数最多?共有多少人?(2)六(1)班的人数相当于六(3)班的百分之几?(3)全年级平均每个班大约有学生多少人?</t>
+  </si>
+  <si>
+    <t>2. 某旅行团共52人到公园划船,他们共租了11条船。每条大船坐6人,每条小船坐4人,已知每条船都坐满了。他们租的大船和小船各有几条?</t>
+  </si>
+  <si>
+    <t>(5)一个长方体的棱长总和是80cm,长和宽都是8cm,这个长方体的高是( )cm,表面积是( ) $$  c m ^ { 2 } $$。</t>
+  </si>
+  <si>
+    <t>6. 一个长方形花园,绕行一周走了240米,长是宽的1.4倍,求花园的面积。</t>
+  </si>
+  <si>
+    <t>$$  \frac { 2 ^ { 2 } } { 1 \times 3 } + \frac { 4 ^ { 2 } } { 3 \times 5 } + \frac { 6 ^ { 2 } } { 5 \times 7 } + \cdots + \frac { 2 0 ^ { 2 } } { 1 9 \times 2 1 } $$</t>
+  </si>
+  <si>
+    <t>2.有一个无水的长方体玻璃水缸,尺寸如左下图所示,一个水龙头从上午2:00开始向玻璃缸内注水,水的流量是8立方分米/分,到9:03关闭水龙头停止注水。接着马上在缸内放入一个高为8厘米的长方体铁块,使之全部浸没水中,玻璃缸的水面高度从注水到放入铁块的变化情况如下图所示。(5分)水面高度/cm32 CB35cm 热 16 cm50cm OA (9:00) (9:03) 时间(1)图中点( 的位置表示停止注水。(从A、B、C中选择)(1分)(2)9:03时玻璃缸水面高度为多少厘米?(2分)(3)求出长方体铁块的底面积。(2分)</t>
+  </si>
+  <si>
+    <t>5. 在 里填上“&gt;”“&lt;”或“=”。$$  5 \bigcirc 2 0 \div 5   3 0 \div 6 \bigcirc 6   4 0 \bigcirc 8 \times 5   9 \div 3 \bigcirc 5 $$</t>
+  </si>
+  <si>
+    <t>37. 如图,将等底等高的圆锥形零件A和圆柱形零件B熔化后,重新铸造成一个新的长方体零件C。圆锥形零件A的底面半径是3cm,高是5cm,长方体零件C的体积是多少立方厘米?</t>
+  </si>
+  <si>
+    <t>2. 用3、0、5组成的不同的三位数有( 其中读出零的数有( 读出零的数有(  )。</t>
+  </si>
+  <si>
+    <t>3. 甲、乙两家商店销售同一种产品的销售价y(单位:元)与销售量x(单位:件)间的函数图象如图19.3-1所示,下列说法:①买2件时,甲、乙两家售价一样;②买1件时,买乙家的合算;③买3件时,买甲家的合算;④乙家1件的售价约为2元.其中正确的说法是( ).y/元 乙甲4 (2,4)321O 1 2 3 x/件:图$$  1 9 . 3 - 1 $$A. ①②B. ②③④C. ②③D. ①②③</t>
+  </si>
+  <si>
+    <t>⑩ 一班师生 30人二班师生 32人三班师生 20人限乘56人哪两个班可以一起乘船?</t>
+  </si>
+  <si>
+    <t>CD.123A O B第7题图 第9题图 第10题图10.如图,O为直线AB上一点,∠BOC是直角,$$  \angle B O D : \angle C O D = 4 : 1   , \angle A O D = ( $$</t>
+  </si>
+  <si>
+    <t>4.孙悟空在去西天取经的路上又遇到了妖精,他每次拔一根毫毛变出一个孙悟空,变出的孙悟空也能每次拔一根毫毛变出一个孙悟空,每次需要的时间是4秒。(1)如果要变出15个孙悟空,最少需要多少时间?把你的想法画出来。(2)12秒最多能变出多少个孙悟空?(3)如果要变出60个孙悟空,最少需要多少时间?</t>
+  </si>
+  <si>
+    <t>五、根据前几幅图的变化规律接着画。</t>
+  </si>
+  <si>
+    <t>5. $$  \frac { 5 } { 9 } $$加上(  )个与它相同的分数单位后,结果是最小的质数;减去(  )个与它相同的分数单位后是 $$  \frac { 1 } { 3 } $$。</t>
+  </si>
+  <si>
+    <t>公共汽车总站每两小时发出9辆公共汽车。照这样计算,从早晨6时到晚上6时,一共发出多少辆公共汽车?(5分)</t>
+  </si>
+  <si>
+    <t>下面三个图形的周长是否相等?请说说理由。44(1) 4(2) (3)</t>
+  </si>
+  <si>
+    <t>用简便方法计算。$$  1 9 9 4 \frac { 1 } { 2 } \times 7 9 + \frac { 6 } { 2 5 } \times 7 9 0 + 2 4 4 . 9 $$</t>
+  </si>
+  <si>
+    <t>24.(12分)在平面直角坐标系中,0为原点,点A(2,0),点$$  B ( b , \frac { 1 } { 2 } b - 1 ) $$,且点B在A的右边.将线段AB平移,平移后A,B的对应点分别为点 $$  C ( b - 4 , a ) , $$,D $$  ( 3 b - 1 2 , k ) $$,其中$$  a &gt; 0 $$,$$  a \neq 1 $$.(1)求b和k的值;(用含a的代数式表示k)(2)探求当a变化时,三角形OCD与三角形ABC的面积大小关系.</t>
+  </si>
+  <si>
+    <t>1115 1(2) 11 12 1 1010 2 g ?。 3 4B 4 F 57 6 51小时的 $$  \frac { 1 } { 3 } $$是( )分钟。 1小时的 $$  \frac { 5 } { 6 } $$是( )分钟。</t>
+  </si>
+  <si>
+    <t>14.在一个停车场上,停放的轿车和三轮摩托车一共32辆。小明数了一下,这些车一共有108个轮子。轿车和三轮摩托车各有多少辆?</t>
+  </si>
+  <si>
+    <t>2. 下面是三(3)班学生一分内仰卧起坐成绩表。(单位:次)男生成绩 女生成绩40 38 37 39 38 40 43 37 41 38 42 3844 43 39 45 40 38 41 36 43 41 39 3742 39 40 42 44 40 38 42 37 38 43 4043 40 39 42(1)用画“×”的方法,接着画下去。男生成绩 女生成绩37 41 42 43 44 45 36 37 38 39 40 41 42 43(2)男生成绩最好的是一分内仰卧起坐()次,女生成绩最好的是一分内仰卧起坐( )次。(3)成绩是42次及以上的为优秀,全班有(  )人成绩为优秀。</t>
+  </si>
+  <si>
+    <t>17.$$  1 7 . 0 9 - 3 . 6 3 - 6 . 3 7 + 0 . 9 1 $$</t>
+  </si>
+  <si>
+    <t>8.在平面直角坐标系中,抛物线C:$$  y = a x ^ { 2 } + ( 3 - 2 a ) x + a - 2 $$与坐标轴有两个交点,则a的值为A. -$$  \frac { 9 } { 4 } $$ B.$$  \frac { 4 } { 9 } $$ 或-2 C. -2 D. $$  \frac { 9 } { 4 } $$或2</t>
+  </si>
+  <si>
+    <t>1.关于x的方程$$  ( a - 2 ) x ^ { 2 } + b x + a = 0 $$,在什么条件下此方程为(1)一元二次方程.(2)一元一次方程.</t>
+  </si>
+  <si>
+    <t>【提升作业】(目标1)3. 为迎接即将到来的“五一劳动节”,某日用品超市推出了两种优惠促销方式供顾客选择,并规定顾客只能选择其中一种促销方式进行结算付款.促销方式一:按所购商品原价打85折;促销方式二:按所购商品原价每满300减60.(如:所购商品原价为340元,则减60元,需付款280元;所购商品原价为630元,则减120元,需付款510元)(1)若某商品原价为500元,该选择哪种促销方式更优惠?请说明理由;(2)当商品原价为多少时,两种促销方式一样优惠;(3)若某商品原价为m元$$  ( 0 &lt; m &lt; 9 0 0 $$,请问当m满足什么条件时,促销方式二比促销方式一更优惠,请说明理由.</t>
+  </si>
+  <si>
+    <t>5、求阴影部分的周长。(1) (2) (3)&amp;5m iú cm 3 crm3cm</t>
+  </si>
+  <si>
+    <t>十二生肖又叫属相,实验小学对同学们的属相进行统计。六(1)班共有15名少先队员,试解释为什么其中至少有2名少先队员的属相是相同的。</t>
+  </si>
+  <si>
+    <t>auto_360046017</t>
+  </si>
+  <si>
+    <t>(1)$$  1 3 . 2 - 7 . 6 + 6 . 8 $$ (2)$$  6 . 3 + 1 2 . 1 7 - 5 . 3 + 7 . 8 3 $$(3)$$  5 7 . 2 6 - ( 6 . 8 + 7 . 2 6 ) $$ (4)$$  1 8 . 7 - ( 8 . 3 - 2 . 4 9 ) $$(5)$$  7 . 7 8 - 0 . 9 6 - 2 . 0 4 $$ (6)$$  1 3 . 6 5 - 9 . 9 + 0 . 1 $$</t>
+  </si>
+  <si>
+    <t>auto_360541900</t>
+  </si>
+  <si>
+    <t>三能简便的要简便.$$① \frac{9}{17}+(\frac{5}{12}+ \frac{8}{17})  \\  = \frac{9}{17}+ \frac{8}{17}+ \frac{5}{12}  \\  =1+ \frac{5}{12}  \\  =1 \frac{5}{12} $$② ③$$ 8- \frac{7}{15}- \frac{8}{15}  \\  =8-(\frac{7}{15}+ \frac{8}{15})  \\  =8-  \\ =7$$$$ \frac{7}{6}- \frac{3}{8}+ \frac{1}{4}  \\ =$$④$$ \frac{13}{12}-(\frac{1}{12}+ \frac{1}{9}) $$ ⑤$$ \frac{19}{21}-(\frac{2}{7}- \frac{2}{21}) $$ ⑥$$ 2-(\frac{5}{7}- \frac{2}{5}) $$</t>
   </si>
 </sst>
 </file>
@@ -51,13 +951,36 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -524,139 +1447,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1183,31 +2121,2425 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.2884615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" ht="17" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="34" spans="1:2">
+      <c r="A2" s="4">
+        <v>1693071</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="51" spans="1:2">
+      <c r="A3" s="4">
+        <v>1749646</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="1:2">
+      <c r="A4" s="4">
+        <v>4709562</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="84" spans="1:2">
+      <c r="A5" s="4">
+        <v>6834175</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="84" spans="1:2">
+      <c r="A6" s="4">
+        <v>7040637</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="152" spans="1:2">
+      <c r="A7" s="4">
+        <v>7300164</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="118" spans="1:2">
+      <c r="A8" s="4">
+        <v>8959035</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="118" spans="1:2">
+      <c r="A9" s="4">
+        <v>9434970</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="118" spans="1:2">
+      <c r="A10" s="4">
+        <v>10626111</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="101" spans="1:2">
+      <c r="A11" s="4">
+        <v>10655049</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="84" spans="1:2">
+      <c r="A12" s="4">
+        <v>12669522</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="68" spans="1:2">
+      <c r="A13" s="4">
+        <v>13493972</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="101" spans="1:2">
+      <c r="A14" s="4">
+        <v>16129853</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="118" spans="1:2">
+      <c r="A15" s="4">
+        <v>22033940</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="51" spans="1:2">
+      <c r="A16" s="4">
+        <v>25366431</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="135" spans="1:2">
+      <c r="A17" s="4">
+        <v>27572171</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="219" spans="1:2">
+      <c r="A18" s="4">
+        <v>28744444</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="219" spans="1:2">
+      <c r="A19" s="4">
+        <v>34327287</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="68" spans="1:2">
+      <c r="A20" s="4">
+        <v>35671816</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="320" spans="1:2">
+      <c r="A21" s="4">
+        <v>38597508</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="51" spans="1:2">
+      <c r="A22" s="4">
+        <v>38729433</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="84" spans="1:2">
+      <c r="A23" s="4">
+        <v>38917979</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="202" spans="1:2">
+      <c r="A24" s="4">
+        <v>41577169</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="236" spans="1:2">
+      <c r="A25" s="4">
+        <v>43347465</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" ht="135" spans="1:2">
+      <c r="A26" s="4">
+        <v>43835563</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="135" spans="1:2">
+      <c r="A27" s="4">
+        <v>44162329</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="84" spans="1:2">
+      <c r="A28" s="4">
+        <v>53887483</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="84" spans="1:2">
+      <c r="A29" s="4">
+        <v>55082663</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="51" spans="1:2">
+      <c r="A30" s="4">
+        <v>57336262</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" ht="118" spans="1:2">
+      <c r="A31" s="4">
+        <v>59657676</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="152" spans="1:2">
+      <c r="A32" s="4">
+        <v>62001207</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" ht="51" spans="1:2">
+      <c r="A33" s="4">
+        <v>66364667</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" ht="34" spans="1:2">
+      <c r="A34" s="4">
+        <v>67281324</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" ht="51" spans="1:2">
+      <c r="A35" s="4">
+        <v>75510113</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="68" spans="1:2">
+      <c r="A36" s="4">
+        <v>78469157</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" ht="51" spans="1:2">
+      <c r="A37" s="4">
+        <v>85673393</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" ht="135" spans="1:2">
+      <c r="A38" s="4">
+        <v>86205561</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" ht="68" spans="1:2">
+      <c r="A39" s="4">
+        <v>89950554</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" ht="118" spans="1:2">
+      <c r="A40" s="4">
+        <v>91228075</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" ht="118" spans="1:2">
+      <c r="A41" s="4">
+        <v>98557991</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:2">
+      <c r="A42" s="4">
+        <v>100203304</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" ht="135" spans="1:2">
+      <c r="A43" s="4">
+        <v>101453354</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" ht="51" spans="1:2">
+      <c r="A44" s="4">
+        <v>104554326</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" ht="51" spans="1:2">
+      <c r="A45" s="4">
+        <v>105277868</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" ht="353" spans="1:2">
+      <c r="A46" s="4">
+        <v>106183005</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" ht="51" spans="1:2">
+      <c r="A47" s="4">
+        <v>110022762</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" ht="118" spans="1:2">
+      <c r="A48" s="4">
+        <v>113555069</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" ht="51" spans="1:2">
+      <c r="A49" s="4">
+        <v>119535120</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="51" spans="1:2">
+      <c r="A50" s="4">
+        <v>120056422</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" ht="168" spans="1:2">
+      <c r="A51" s="4">
+        <v>122163484</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" ht="34" spans="1:2">
+      <c r="A52" s="4">
+        <v>125278425</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" ht="152" spans="1:2">
+      <c r="A53" s="4">
+        <v>125751209</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" ht="51" spans="1:2">
+      <c r="A54" s="4">
+        <v>125804946</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" ht="118" spans="1:2">
+      <c r="A55" s="4">
+        <v>126638190</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" ht="68" spans="1:2">
+      <c r="A56" s="4">
+        <v>134069777</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" ht="84" spans="1:2">
+      <c r="A57" s="4">
+        <v>135587273</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" ht="118" spans="1:2">
+      <c r="A58" s="4">
+        <v>135893093</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" ht="118" spans="1:2">
+      <c r="A59" s="4">
+        <v>136483721</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" ht="101" spans="1:2">
+      <c r="A60" s="4">
+        <v>139108802</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" ht="101" spans="1:2">
+      <c r="A61" s="4">
+        <v>139147864</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" ht="84" spans="1:2">
+      <c r="A62" s="4">
+        <v>140314168</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" ht="185" spans="1:2">
+      <c r="A63" s="4">
+        <v>140691765</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" ht="51" spans="1:2">
+      <c r="A64" s="4">
+        <v>140705055</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" ht="236" spans="1:2">
+      <c r="A65" s="4">
+        <v>141611266</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" ht="34" spans="1:2">
+      <c r="A66" s="4">
+        <v>143640593</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" ht="68" spans="1:2">
+      <c r="A67" s="4">
+        <v>144891012</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" ht="118" spans="1:2">
+      <c r="A68" s="4">
+        <v>145404691</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" ht="118" spans="1:2">
+      <c r="A69" s="4">
+        <v>145824604</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" ht="152" spans="1:2">
+      <c r="A70" s="4">
+        <v>145889493</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" ht="51" spans="1:2">
+      <c r="A71" s="4">
+        <v>147498399</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" ht="135" spans="1:2">
+      <c r="A72" s="4">
+        <v>148523550</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" ht="34" spans="1:2">
+      <c r="A73" s="4">
+        <v>150493410</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" ht="68" spans="1:2">
+      <c r="A74" s="4">
+        <v>151560135</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" ht="84" spans="1:2">
+      <c r="A75" s="4">
+        <v>151579893</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" ht="118" spans="1:2">
+      <c r="A76" s="4">
+        <v>152418696</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" ht="51" spans="1:2">
+      <c r="A77" s="4">
+        <v>152954281</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" ht="51" spans="1:2">
+      <c r="A78" s="4">
+        <v>157428957</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" ht="51" spans="1:2">
+      <c r="A79" s="4">
+        <v>162054444</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" ht="118" spans="1:2">
+      <c r="A80" s="4">
+        <v>164382205</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" ht="135" spans="1:2">
+      <c r="A81" s="4">
+        <v>165629089</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" ht="84" spans="1:2">
+      <c r="A82" s="4">
+        <v>172792937</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" ht="101" spans="1:2">
+      <c r="A83" s="4">
+        <v>185814975</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" ht="353" spans="1:2">
+      <c r="A84" s="4">
+        <v>187140234</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" ht="68" spans="1:2">
+      <c r="A85" s="4">
+        <v>194147651</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" ht="101" spans="1:2">
+      <c r="A86" s="4">
+        <v>194263257</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" ht="168" spans="1:2">
+      <c r="A87" s="4">
+        <v>197550141</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" ht="202" spans="1:2">
+      <c r="A88" s="4">
+        <v>199215541</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" ht="34" spans="1:2">
+      <c r="A89" s="4">
+        <v>202546104</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" ht="34" spans="1:2">
+      <c r="A90" s="4">
+        <v>206288709</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" ht="101" spans="1:2">
+      <c r="A91" s="4">
+        <v>206859771</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" ht="118" spans="1:2">
+      <c r="A92" s="4">
+        <v>208457329</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" ht="51" spans="1:2">
+      <c r="A93" s="4">
+        <v>222838513</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" ht="34" spans="1:2">
+      <c r="A94" s="4">
+        <v>223448607</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" ht="34" spans="1:2">
+      <c r="A95" s="4">
+        <v>224406511</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" ht="51" spans="1:2">
+      <c r="A96" s="4">
+        <v>229184725</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" ht="51" spans="1:2">
+      <c r="A97" s="4">
+        <v>230552185</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" ht="68" spans="1:2">
+      <c r="A98" s="4">
+        <v>237326929</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" ht="370" spans="1:2">
+      <c r="A99" s="4">
+        <v>239773506</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" ht="68" spans="1:2">
+      <c r="A100" s="4">
+        <v>240209671</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" ht="118" spans="1:2">
+      <c r="A101" s="4">
+        <v>242503332</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" ht="118" spans="1:2">
+      <c r="A102" s="4">
+        <v>245537550</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" ht="168" spans="1:2">
+      <c r="A103" s="4">
+        <v>246856973</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" ht="84" spans="1:2">
+      <c r="A104" s="4">
+        <v>252366528</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" ht="51" spans="1:2">
+      <c r="A105" s="4">
+        <v>253257972</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" ht="409.5" spans="1:2">
+      <c r="A106" s="4">
+        <v>256312714</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" ht="68" spans="1:2">
+      <c r="A107" s="4">
+        <v>256979022</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" ht="68" spans="1:2">
+      <c r="A108" s="4">
+        <v>257518753</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" ht="51" spans="1:2">
+      <c r="A109" s="4">
+        <v>257941475</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" ht="101" spans="1:2">
+      <c r="A110" s="4">
+        <v>257963497</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" ht="51" spans="1:2">
+      <c r="A111" s="4">
+        <v>258911813</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" ht="51" spans="1:2">
+      <c r="A112" s="4">
+        <v>259610655</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" ht="68" spans="1:2">
+      <c r="A113" s="4">
+        <v>260347623</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" ht="34" spans="1:2">
+      <c r="A114" s="4">
+        <v>260957547</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" ht="68" spans="1:2">
+      <c r="A115" s="4">
+        <v>261120870</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" ht="118" spans="1:2">
+      <c r="A116" s="4">
+        <v>261599674</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" ht="101" spans="1:2">
+      <c r="A117" s="4">
+        <v>262167318</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" ht="101" spans="1:2">
+      <c r="A118" s="4">
+        <v>262506487</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" ht="51" spans="1:2">
+      <c r="A119" s="4">
+        <v>262597731</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" ht="168" spans="1:2">
+      <c r="A120" s="4">
+        <v>264889521</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" ht="84" spans="1:2">
+      <c r="A121" s="4">
+        <v>266608723</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" ht="51" spans="1:2">
+      <c r="A122" s="4">
+        <v>267191208</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" ht="84" spans="1:2">
+      <c r="A123" s="4">
+        <v>269465587</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" ht="101" spans="1:2">
+      <c r="A124" s="4">
+        <v>272335588</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" ht="353" spans="1:2">
+      <c r="A125" s="4">
+        <v>273398216</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" ht="118" spans="1:2">
+      <c r="A126" s="4">
+        <v>273718172</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" ht="68" spans="1:2">
+      <c r="A127" s="4">
+        <v>274233377</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" ht="101" spans="1:2">
+      <c r="A128" s="4">
+        <v>274642895</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" ht="84" spans="1:2">
+      <c r="A129" s="4">
+        <v>274652328</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" ht="135" spans="1:2">
+      <c r="A130" s="4">
+        <v>274726193</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" ht="68" spans="1:2">
+      <c r="A131" s="4">
+        <v>274948923</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" ht="152" spans="1:2">
+      <c r="A132" s="4">
+        <v>274964480</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" ht="152" spans="1:2">
+      <c r="A133" s="4">
+        <v>275235720</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" ht="118" spans="1:2">
+      <c r="A134" s="4">
+        <v>276529111</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" ht="84" spans="1:2">
+      <c r="A135" s="4">
+        <v>277179581</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" ht="68" spans="1:2">
+      <c r="A136" s="4">
+        <v>277451918</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" ht="34" spans="1:2">
+      <c r="A137" s="4">
+        <v>277948491</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" ht="68" spans="1:2">
+      <c r="A138" s="4">
+        <v>278222317</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" ht="68" spans="1:2">
+      <c r="A139" s="4">
+        <v>278302330</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" ht="135" spans="1:2">
+      <c r="A140" s="4">
+        <v>278315355</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" ht="84" spans="1:2">
+      <c r="A141" s="4">
+        <v>278671338</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" ht="51" spans="1:2">
+      <c r="A142" s="4">
+        <v>278802144</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" ht="320" spans="1:2">
+      <c r="A143" s="4">
+        <v>278818594</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" ht="101" spans="1:2">
+      <c r="A144" s="4">
+        <v>279257716</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" ht="135" spans="1:2">
+      <c r="A145" s="4">
+        <v>279277239</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" ht="202" spans="1:2">
+      <c r="A146" s="4">
+        <v>279298543</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" ht="252" spans="1:2">
+      <c r="A147" s="4">
+        <v>279500596</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" ht="152" spans="1:2">
+      <c r="A148" s="4">
+        <v>280124355</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" ht="101" spans="1:2">
+      <c r="A149" s="4">
+        <v>280142389</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" ht="101" spans="1:2">
+      <c r="A150" s="4">
+        <v>281218258</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" ht="152" spans="1:2">
+      <c r="A151" s="4">
+        <v>281281267</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" ht="68" spans="1:2">
+      <c r="A152" s="4">
+        <v>281582422</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" ht="34" spans="1:2">
+      <c r="A153" s="4">
+        <v>281875878</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" ht="17" spans="1:2">
+      <c r="A154" s="4">
+        <v>282136861</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" ht="34" spans="1:2">
+      <c r="A155" s="4">
+        <v>282515920</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" ht="34" spans="1:2">
+      <c r="A156" s="4">
+        <v>282867767</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" ht="118" spans="1:2">
+      <c r="A157" s="4">
+        <v>284260801</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" ht="135" spans="1:2">
+      <c r="A158" s="4">
+        <v>285360123</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" ht="68" spans="1:2">
+      <c r="A159" s="4">
+        <v>286061295</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" ht="68" spans="1:2">
+      <c r="A160" s="4">
+        <v>286061436</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" ht="84" spans="1:2">
+      <c r="A161" s="4">
+        <v>286079943</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" ht="185" spans="1:2">
+      <c r="A162" s="4">
+        <v>287098890</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" ht="84" spans="1:2">
+      <c r="A163" s="4">
+        <v>288004092</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" ht="202" spans="1:2">
+      <c r="A164" s="4">
+        <v>289183618</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" ht="219" spans="1:2">
+      <c r="A165" s="4">
+        <v>290217204</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" ht="17" spans="1:2">
+      <c r="A166" s="4">
+        <v>290406799</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" ht="219" spans="1:2">
+      <c r="A167" s="4">
+        <v>290803966</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" ht="51" spans="1:2">
+      <c r="A168" s="4">
+        <v>291579324</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" ht="152" spans="1:2">
+      <c r="A169" s="4">
+        <v>293979117</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" ht="84" spans="1:2">
+      <c r="A170" s="4">
+        <v>294139421</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" ht="101" spans="1:2">
+      <c r="A171" s="4">
+        <v>294285928</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" ht="135" spans="1:2">
+      <c r="A172" s="4">
+        <v>294539808</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" ht="152" spans="1:2">
+      <c r="A173" s="4">
+        <v>294930615</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" ht="84" spans="1:2">
+      <c r="A174" s="4">
+        <v>295117643</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" ht="68" spans="1:2">
+      <c r="A175" s="4">
+        <v>295640111</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" ht="236" spans="1:2">
+      <c r="A176" s="4">
+        <v>296077783</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" ht="219" spans="1:2">
+      <c r="A177" s="4">
+        <v>296155951</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" ht="353" spans="1:2">
+      <c r="A178" s="4">
+        <v>298605266</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" ht="34" spans="1:2">
+      <c r="A179" s="4">
+        <v>298759976</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" ht="51" spans="1:2">
+      <c r="A180" s="4">
+        <v>299251778</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" ht="84" spans="1:2">
+      <c r="A181" s="4">
+        <v>299369444</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" ht="101" spans="1:2">
+      <c r="A182" s="4">
+        <v>299539483</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" ht="84" spans="1:2">
+      <c r="A183" s="4">
+        <v>299629908</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" ht="168" spans="1:2">
+      <c r="A184" s="4">
+        <v>299807940</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" ht="51" spans="1:2">
+      <c r="A185" s="4">
+        <v>300184277</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" ht="135" spans="1:2">
+      <c r="A186" s="4">
+        <v>300332417</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" ht="168" spans="1:2">
+      <c r="A187" s="4">
+        <v>310353206</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" ht="286" spans="1:2">
+      <c r="A188" s="4">
+        <v>310698910</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" ht="101" spans="1:2">
+      <c r="A189" s="4">
+        <v>311977773</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" ht="135" spans="1:2">
+      <c r="A190" s="4">
+        <v>312419162</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" ht="409.5" spans="1:2">
+      <c r="A191" s="4">
+        <v>314154161</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" ht="185" spans="1:2">
+      <c r="A192" s="4">
+        <v>316375015</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" ht="135" spans="1:2">
+      <c r="A193" s="4">
+        <v>318477420</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" ht="320" spans="1:2">
+      <c r="A194" s="4">
+        <v>318549897</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" ht="135" spans="1:2">
+      <c r="A195" s="4">
+        <v>318683080</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" ht="51" spans="1:2">
+      <c r="A196" s="4">
+        <v>319273884</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" ht="84" spans="1:2">
+      <c r="A197" s="4">
+        <v>320079260</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" ht="34" spans="1:2">
+      <c r="A198" s="4">
+        <v>320441809</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" ht="84" spans="1:2">
+      <c r="A199" s="4">
+        <v>320618427</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" ht="387" spans="1:2">
+      <c r="A200" s="4">
+        <v>320801613</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" ht="101" spans="1:2">
+      <c r="A201" s="4">
+        <v>321794226</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" ht="118" spans="1:2">
+      <c r="A202" s="4">
+        <v>322015890</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" ht="152" spans="1:2">
+      <c r="A203" s="4">
+        <v>322072042</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" ht="51" spans="1:2">
+      <c r="A204" s="4">
+        <v>322542779</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" ht="101" spans="1:2">
+      <c r="A205" s="4">
+        <v>322554736</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" ht="51" spans="1:2">
+      <c r="A206" s="4">
+        <v>322819480</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" ht="303" spans="1:2">
+      <c r="A207" s="4">
+        <v>323035334</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" ht="409.5" spans="1:2">
+      <c r="A208" s="4">
+        <v>323070030</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" ht="135" spans="1:2">
+      <c r="A209" s="4">
+        <v>323355649</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" ht="135" spans="1:2">
+      <c r="A210" s="4">
+        <v>323510637</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" ht="68" spans="1:2">
+      <c r="A211" s="4">
+        <v>324198754</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" ht="135" spans="1:2">
+      <c r="A212" s="4">
+        <v>324289180</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" ht="51" spans="1:2">
+      <c r="A213" s="4">
+        <v>324396197</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" ht="152" spans="1:2">
+      <c r="A214" s="4">
+        <v>324433381</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" ht="68" spans="1:2">
+      <c r="A215" s="4">
+        <v>324598603</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" ht="185" spans="1:2">
+      <c r="A216" s="4">
+        <v>324628619</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" ht="68" spans="1:2">
+      <c r="A217" s="4">
+        <v>324800252</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" ht="101" spans="1:2">
+      <c r="A218" s="4">
+        <v>324936038</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" ht="152" spans="1:2">
+      <c r="A219" s="4">
+        <v>324970051</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" ht="118" spans="1:2">
+      <c r="A220" s="4">
+        <v>325015554</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" ht="34" spans="1:2">
+      <c r="A221" s="4">
+        <v>325163987</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" ht="303" spans="1:2">
+      <c r="A222" s="4">
+        <v>325283267</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" ht="118" spans="1:2">
+      <c r="A223" s="4">
+        <v>325326043</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" ht="16.8" spans="1:2">
+      <c r="A224" s="4">
+        <v>325339682</v>
+      </c>
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" ht="84" spans="1:2">
+      <c r="A225" s="4">
+        <v>325875510</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" ht="34" spans="1:2">
+      <c r="A226" s="4">
+        <v>326045110</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" ht="202" spans="1:2">
+      <c r="A227" s="4">
+        <v>326144652</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" ht="84" spans="1:2">
+      <c r="A228" s="4">
+        <v>326200494</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" ht="84" spans="1:2">
+      <c r="A229" s="4">
+        <v>326460288</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" ht="101" spans="1:2">
+      <c r="A230" s="4">
+        <v>326510783</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" ht="152" spans="1:2">
+      <c r="A231" s="4">
+        <v>326536159</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" ht="84" spans="1:2">
+      <c r="A232" s="4">
+        <v>326540795</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" ht="101" spans="1:2">
+      <c r="A233" s="4">
+        <v>326554388</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" ht="202" spans="1:2">
+      <c r="A234" s="4">
+        <v>326642194</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" ht="84" spans="1:2">
+      <c r="A235" s="4">
+        <v>326748396</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" ht="68" spans="1:2">
+      <c r="A236" s="4">
+        <v>326926841</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" ht="51" spans="1:2">
+      <c r="A237" s="4">
+        <v>327142704</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" ht="118" spans="1:2">
+      <c r="A238" s="4">
+        <v>327217487</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" ht="101" spans="1:2">
+      <c r="A239" s="4">
+        <v>327316467</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" ht="118" spans="1:2">
+      <c r="A240" s="4">
+        <v>327360194</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" ht="68" spans="1:2">
+      <c r="A241" s="4">
+        <v>327438481</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" ht="101" spans="1:2">
+      <c r="A242" s="4">
+        <v>327502851</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" ht="118" spans="1:2">
+      <c r="A243" s="4">
+        <v>329217068</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" ht="236" spans="1:2">
+      <c r="A244" s="4">
+        <v>330234228</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" ht="84" spans="1:2">
+      <c r="A245" s="4">
+        <v>333485420</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" ht="101" spans="1:2">
+      <c r="A246" s="4">
+        <v>333848648</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" ht="370" spans="1:2">
+      <c r="A247" s="4">
+        <v>334122412</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" ht="252" spans="1:2">
+      <c r="A248" s="4">
+        <v>334366353</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" ht="84" spans="1:2">
+      <c r="A249" s="4">
+        <v>335461330</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" ht="168" spans="1:2">
+      <c r="A250" s="4">
+        <v>335836990</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" ht="236" spans="1:2">
+      <c r="A251" s="4">
+        <v>336005118</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" ht="336" spans="1:2">
+      <c r="A252" s="4">
+        <v>336468143</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" ht="252" spans="1:2">
+      <c r="A253" s="4">
+        <v>337131824</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" ht="303" spans="1:2">
+      <c r="A254" s="4">
+        <v>337498941</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" ht="135" spans="1:2">
+      <c r="A255" s="4">
+        <v>337692350</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" ht="135" spans="1:2">
+      <c r="A256" s="4">
+        <v>337771060</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" ht="68" spans="1:2">
+      <c r="A257" s="4">
+        <v>337859288</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" ht="101" spans="1:2">
+      <c r="A258" s="4">
+        <v>338010283</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" ht="84" spans="1:2">
+      <c r="A259" s="4">
+        <v>338809085</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" ht="101" spans="1:2">
+      <c r="A260" s="4">
+        <v>338820504</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" ht="51" spans="1:2">
+      <c r="A261" s="4">
+        <v>339387267</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" ht="185" spans="1:2">
+      <c r="A262" s="4">
+        <v>339559313</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" ht="202" spans="1:2">
+      <c r="A263" s="4">
+        <v>339661747</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" ht="17" spans="1:2">
+      <c r="A264" s="4">
+        <v>339899586</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" ht="68" spans="1:2">
+      <c r="A265" s="4">
+        <v>340164547</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" ht="152" spans="1:2">
+      <c r="A266" s="4">
+        <v>340432496</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" ht="370" spans="1:2">
+      <c r="A267" s="4">
+        <v>340702213</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" ht="118" spans="1:2">
+      <c r="A268" s="4">
+        <v>340733305</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" ht="269" spans="1:2">
+      <c r="A269" s="4">
+        <v>340830821</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" ht="118" spans="1:2">
+      <c r="A270" s="4">
+        <v>340939804</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" ht="51" spans="1:2">
+      <c r="A271" s="4">
+        <v>341088273</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" ht="236" spans="1:2">
+      <c r="A272" s="4">
+        <v>341090660</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" ht="101" spans="1:2">
+      <c r="A273" s="4">
+        <v>341174228</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" ht="84" spans="1:2">
+      <c r="A274" s="4">
+        <v>341239119</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" ht="51" spans="1:2">
+      <c r="A275" s="4">
+        <v>341309374</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" ht="101" spans="1:2">
+      <c r="A276" s="4">
+        <v>341369069</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" ht="336" spans="1:2">
+      <c r="A277" s="4">
+        <v>341446074</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" ht="84" spans="1:2">
+      <c r="A278" s="4">
+        <v>341545371</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" ht="118" spans="1:2">
+      <c r="A279" s="4">
+        <v>341676031</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" ht="68" spans="1:2">
+      <c r="A280" s="4">
+        <v>341681783</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" ht="219" spans="1:2">
+      <c r="A281" s="4">
+        <v>341920114</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" ht="68" spans="1:2">
+      <c r="A282" s="4">
+        <v>342099265</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" ht="101" spans="1:2">
+      <c r="A283" s="4">
+        <v>342381703</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" ht="202" spans="1:2">
+      <c r="A284" s="4">
+        <v>342392590</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" ht="34" spans="1:2">
+      <c r="A285" s="4">
+        <v>343014293</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" ht="101" spans="1:2">
+      <c r="A286" s="4">
+        <v>343282403</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" ht="84" spans="1:2">
+      <c r="A287" s="4">
+        <v>343336921</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" ht="51" spans="1:2">
+      <c r="A288" s="4">
+        <v>343663966</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" ht="68" spans="1:2">
+      <c r="A289" s="4">
+        <v>345415372</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" ht="219" spans="1:2">
+      <c r="A290" s="4">
+        <v>349882825</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" ht="84" spans="1:2">
+      <c r="A291" s="4">
+        <v>350900252</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" ht="101" spans="1:2">
+      <c r="A292" s="4">
+        <v>351231547</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" ht="286" spans="1:2">
+      <c r="A293" s="4">
+        <v>354355181</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" ht="34" spans="1:2">
+      <c r="A294" s="4">
+        <v>355435835</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" ht="135" spans="1:2">
+      <c r="A295" s="4">
+        <v>360911319</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" ht="84" spans="1:2">
+      <c r="A296" s="4">
+        <v>363936950</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" ht="387" spans="1:2">
+      <c r="A297" s="4">
+        <v>371887567</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" ht="51" spans="1:2">
+      <c r="A298" s="4">
+        <v>377195251</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" ht="101" spans="1:2">
+      <c r="A299" s="4">
+        <v>384755791</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" ht="135" spans="1:2">
+      <c r="A300" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" ht="370" spans="1:2">
+      <c r="A301" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>id</t>
   </si>
@@ -939,12 +939,18 @@
   </si>
   <si>
     <t>三能简便的要简便.$$① \frac{9}{17}+(\frac{5}{12}+ \frac{8}{17})  \\  = \frac{9}{17}+ \frac{8}{17}+ \frac{5}{12}  \\  =1+ \frac{5}{12}  \\  =1 \frac{5}{12} $$② ③$$ 8- \frac{7}{15}- \frac{8}{15}  \\  =8-(\frac{7}{15}+ \frac{8}{15})  \\  =8-  \\ =7$$$$ \frac{7}{6}- \frac{3}{8}+ \frac{1}{4}  \\ =$$④$$ \frac{13}{12}-(\frac{1}{12}+ \frac{1}{9}) $$ ⑤$$ \frac{19}{21}-(\frac{2}{7}- \frac{2}{21}) $$ ⑥$$ 2-(\frac{5}{7}- \frac{2}{5}) $$</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>2222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1006,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1014,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
@@ -1022,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1030,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1038,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1053,7 +1059,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1061,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1069,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1084,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1432,148 +1438,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,20 +1587,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1683,9 +1689,13 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
         <top style="double">
           <color theme="4"/>
         </top>
+        <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1717,9 +1727,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1730,9 +1738,13 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1746,9 +1758,13 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1761,9 +1777,13 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1778,12 +1798,15 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1814,12 +1837,15 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1834,14 +1860,18 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+  <tableStyles count="2" defaultPivotStyle="PivotStylePreset2_Accent1" defaultTableStyle="TableStylePreset3_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1850,7 +1880,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1872,7 +1902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -2115,6 +2145,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2123,17 +2154,17 @@
   <sheetPr/>
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.2884615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" style="1" width="30.2884615384615"/>
+    <col customWidth="true" max="2" min="2" style="1" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:3">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2141,162 +2172,219 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="34" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34">
       <c r="A2" s="4">
         <v>1693071</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="51" spans="1:2">
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51">
       <c r="A3" s="4">
         <v>1749646</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="51" spans="1:2">
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51">
       <c r="A4" s="4">
         <v>4709562</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="84" spans="1:2">
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="84">
       <c r="A5" s="4">
         <v>6834175</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" ht="84" spans="1:2">
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="84">
       <c r="A6" s="4">
         <v>7040637</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" ht="152" spans="1:2">
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="152">
       <c r="A7" s="4">
         <v>7300164</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" ht="118" spans="1:2">
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="118">
       <c r="A8" s="4">
         <v>8959035</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" ht="118" spans="1:2">
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="118">
       <c r="A9" s="4">
         <v>9434970</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" ht="118" spans="1:2">
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="118">
       <c r="A10" s="4">
         <v>10626111</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" ht="101" spans="1:2">
+      <c r="C10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="101">
       <c r="A11" s="4">
         <v>10655049</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="84" spans="1:2">
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="84">
       <c r="A12" s="4">
         <v>12669522</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" ht="68" spans="1:2">
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="68">
       <c r="A13" s="4">
         <v>13493972</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" ht="101" spans="1:2">
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="101">
       <c r="A14" s="4">
         <v>16129853</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" ht="118" spans="1:2">
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="118">
       <c r="A15" s="4">
         <v>22033940</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" ht="51" spans="1:2">
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="51">
       <c r="A16" s="4">
         <v>25366431</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" ht="135" spans="1:2">
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="135">
       <c r="A17" s="4">
         <v>27572171</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" ht="219" spans="1:2">
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="219">
       <c r="A18" s="4">
         <v>28744444</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" ht="219" spans="1:2">
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="219">
       <c r="A19" s="4">
         <v>34327287</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" ht="68" spans="1:2">
+      <c r="C19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="68">
       <c r="A20" s="4">
         <v>35671816</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" ht="320" spans="1:2">
+      <c r="C20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="320">
       <c r="A21" s="4">
         <v>38597508</v>
       </c>
@@ -2304,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="51" spans="1:2">
+    <row r="22" spans="1:2" ht="51">
       <c r="A22" s="4">
         <v>38729433</v>
       </c>
@@ -2312,7 +2400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="84" spans="1:2">
+    <row r="23" spans="1:2" ht="84">
       <c r="A23" s="4">
         <v>38917979</v>
       </c>
@@ -2320,7 +2408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="202" spans="1:2">
+    <row r="24" spans="1:2" ht="202">
       <c r="A24" s="4">
         <v>41577169</v>
       </c>
@@ -2328,7 +2416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" ht="236" spans="1:2">
+    <row r="25" spans="1:2" ht="236">
       <c r="A25" s="4">
         <v>43347465</v>
       </c>
@@ -2336,7 +2424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" ht="135" spans="1:2">
+    <row r="26" spans="1:2" ht="135">
       <c r="A26" s="4">
         <v>43835563</v>
       </c>
@@ -2344,7 +2432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="135" spans="1:2">
+    <row r="27" spans="1:2" ht="135">
       <c r="A27" s="4">
         <v>44162329</v>
       </c>
@@ -2352,7 +2440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" ht="84" spans="1:2">
+    <row r="28" spans="1:2" ht="84">
       <c r="A28" s="4">
         <v>53887483</v>
       </c>
@@ -2360,7 +2448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" ht="84" spans="1:2">
+    <row r="29" spans="1:2" ht="84">
       <c r="A29" s="4">
         <v>55082663</v>
       </c>
@@ -2368,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="51" spans="1:2">
+    <row r="30" spans="1:2" ht="51">
       <c r="A30" s="4">
         <v>57336262</v>
       </c>
@@ -2376,7 +2464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" ht="118" spans="1:2">
+    <row r="31" spans="1:2" ht="118">
       <c r="A31" s="4">
         <v>59657676</v>
       </c>
@@ -2384,7 +2472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" ht="152" spans="1:2">
+    <row r="32" spans="1:2" ht="152">
       <c r="A32" s="4">
         <v>62001207</v>
       </c>
@@ -2392,7 +2480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" ht="51" spans="1:2">
+    <row r="33" spans="1:2" ht="51">
       <c r="A33" s="4">
         <v>66364667</v>
       </c>
@@ -2400,7 +2488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" ht="34" spans="1:2">
+    <row r="34" spans="1:2" ht="34">
       <c r="A34" s="4">
         <v>67281324</v>
       </c>
@@ -2408,7 +2496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" ht="51" spans="1:2">
+    <row r="35" spans="1:2" ht="51">
       <c r="A35" s="4">
         <v>75510113</v>
       </c>
@@ -2416,7 +2504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" ht="68" spans="1:2">
+    <row r="36" spans="1:2" ht="68">
       <c r="A36" s="4">
         <v>78469157</v>
       </c>
@@ -2424,7 +2512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" ht="51" spans="1:2">
+    <row r="37" spans="1:2" ht="51">
       <c r="A37" s="4">
         <v>85673393</v>
       </c>
@@ -2432,7 +2520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" ht="135" spans="1:2">
+    <row r="38" spans="1:2" ht="135">
       <c r="A38" s="4">
         <v>86205561</v>
       </c>
@@ -2440,7 +2528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="68" spans="1:2">
+    <row r="39" spans="1:2" ht="68">
       <c r="A39" s="4">
         <v>89950554</v>
       </c>
@@ -2448,7 +2536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" ht="118" spans="1:2">
+    <row r="40" spans="1:2" ht="118">
       <c r="A40" s="4">
         <v>91228075</v>
       </c>
@@ -2456,7 +2544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" ht="118" spans="1:2">
+    <row r="41" spans="1:2" ht="118">
       <c r="A41" s="4">
         <v>98557991</v>
       </c>
@@ -2464,7 +2552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" ht="17" spans="1:2">
+    <row r="42" spans="1:2" ht="17">
       <c r="A42" s="4">
         <v>100203304</v>
       </c>
@@ -2472,7 +2560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" ht="135" spans="1:2">
+    <row r="43" spans="1:2" ht="135">
       <c r="A43" s="4">
         <v>101453354</v>
       </c>
@@ -2480,7 +2568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" ht="51" spans="1:2">
+    <row r="44" spans="1:2" ht="51">
       <c r="A44" s="4">
         <v>104554326</v>
       </c>
@@ -2488,7 +2576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" ht="51" spans="1:2">
+    <row r="45" spans="1:2" ht="51">
       <c r="A45" s="4">
         <v>105277868</v>
       </c>
@@ -2496,7 +2584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" ht="353" spans="1:2">
+    <row r="46" spans="1:2" ht="353">
       <c r="A46" s="4">
         <v>106183005</v>
       </c>
@@ -2504,7 +2592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" ht="51" spans="1:2">
+    <row r="47" spans="1:2" ht="51">
       <c r="A47" s="4">
         <v>110022762</v>
       </c>
@@ -2512,7 +2600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" ht="118" spans="1:2">
+    <row r="48" spans="1:2" ht="118">
       <c r="A48" s="4">
         <v>113555069</v>
       </c>
@@ -2520,7 +2608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" ht="51" spans="1:2">
+    <row r="49" spans="1:2" ht="51">
       <c r="A49" s="4">
         <v>119535120</v>
       </c>
@@ -2528,7 +2616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" ht="51" spans="1:2">
+    <row r="50" spans="1:2" ht="51">
       <c r="A50" s="4">
         <v>120056422</v>
       </c>
@@ -2536,7 +2624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" ht="168" spans="1:2">
+    <row r="51" spans="1:2" ht="168">
       <c r="A51" s="4">
         <v>122163484</v>
       </c>
@@ -2544,7 +2632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" ht="34" spans="1:2">
+    <row r="52" spans="1:2" ht="34">
       <c r="A52" s="4">
         <v>125278425</v>
       </c>
@@ -2552,7 +2640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" ht="152" spans="1:2">
+    <row r="53" spans="1:2" ht="152">
       <c r="A53" s="4">
         <v>125751209</v>
       </c>
@@ -2560,7 +2648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" ht="51" spans="1:2">
+    <row r="54" spans="1:2" ht="51">
       <c r="A54" s="4">
         <v>125804946</v>
       </c>
@@ -2568,7 +2656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" ht="118" spans="1:2">
+    <row r="55" spans="1:2" ht="118">
       <c r="A55" s="4">
         <v>126638190</v>
       </c>
@@ -2576,7 +2664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" ht="68" spans="1:2">
+    <row r="56" spans="1:2" ht="68">
       <c r="A56" s="4">
         <v>134069777</v>
       </c>
@@ -2584,7 +2672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" ht="84" spans="1:2">
+    <row r="57" spans="1:2" ht="84">
       <c r="A57" s="4">
         <v>135587273</v>
       </c>
@@ -2592,7 +2680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" ht="118" spans="1:2">
+    <row r="58" spans="1:2" ht="118">
       <c r="A58" s="4">
         <v>135893093</v>
       </c>
@@ -2600,7 +2688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" ht="118" spans="1:2">
+    <row r="59" spans="1:2" ht="118">
       <c r="A59" s="4">
         <v>136483721</v>
       </c>
@@ -2608,7 +2696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" ht="101" spans="1:2">
+    <row r="60" spans="1:2" ht="101">
       <c r="A60" s="4">
         <v>139108802</v>
       </c>
@@ -2616,7 +2704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" ht="101" spans="1:2">
+    <row r="61" spans="1:2" ht="101">
       <c r="A61" s="4">
         <v>139147864</v>
       </c>
@@ -2624,7 +2712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" ht="84" spans="1:2">
+    <row r="62" spans="1:2" ht="84">
       <c r="A62" s="4">
         <v>140314168</v>
       </c>
@@ -2632,7 +2720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" ht="185" spans="1:2">
+    <row r="63" spans="1:2" ht="185">
       <c r="A63" s="4">
         <v>140691765</v>
       </c>
@@ -2640,7 +2728,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" ht="51" spans="1:2">
+    <row r="64" spans="1:2" ht="51">
       <c r="A64" s="4">
         <v>140705055</v>
       </c>
@@ -2648,7 +2736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" ht="236" spans="1:2">
+    <row r="65" spans="1:2" ht="236">
       <c r="A65" s="4">
         <v>141611266</v>
       </c>
@@ -2656,7 +2744,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" ht="34" spans="1:2">
+    <row r="66" spans="1:2" ht="34">
       <c r="A66" s="4">
         <v>143640593</v>
       </c>
@@ -2664,7 +2752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" ht="68" spans="1:2">
+    <row r="67" spans="1:2" ht="68">
       <c r="A67" s="4">
         <v>144891012</v>
       </c>
@@ -2672,7 +2760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" ht="118" spans="1:2">
+    <row r="68" spans="1:2" ht="118">
       <c r="A68" s="4">
         <v>145404691</v>
       </c>
@@ -2680,7 +2768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" ht="118" spans="1:2">
+    <row r="69" spans="1:2" ht="118">
       <c r="A69" s="4">
         <v>145824604</v>
       </c>
@@ -2688,7 +2776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" ht="152" spans="1:2">
+    <row r="70" spans="1:2" ht="152">
       <c r="A70" s="4">
         <v>145889493</v>
       </c>
@@ -2696,7 +2784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" ht="51" spans="1:2">
+    <row r="71" spans="1:2" ht="51">
       <c r="A71" s="4">
         <v>147498399</v>
       </c>
@@ -2704,7 +2792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" ht="135" spans="1:2">
+    <row r="72" spans="1:2" ht="135">
       <c r="A72" s="4">
         <v>148523550</v>
       </c>
@@ -2712,7 +2800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" ht="34" spans="1:2">
+    <row r="73" spans="1:2" ht="34">
       <c r="A73" s="4">
         <v>150493410</v>
       </c>
@@ -2720,7 +2808,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" ht="68" spans="1:2">
+    <row r="74" spans="1:2" ht="68">
       <c r="A74" s="4">
         <v>151560135</v>
       </c>
@@ -2728,7 +2816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" ht="84" spans="1:2">
+    <row r="75" spans="1:2" ht="84">
       <c r="A75" s="4">
         <v>151579893</v>
       </c>
@@ -2736,7 +2824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" ht="118" spans="1:2">
+    <row r="76" spans="1:2" ht="118">
       <c r="A76" s="4">
         <v>152418696</v>
       </c>
@@ -2744,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" ht="51" spans="1:2">
+    <row r="77" spans="1:2" ht="51">
       <c r="A77" s="4">
         <v>152954281</v>
       </c>
@@ -2752,7 +2840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" ht="51" spans="1:2">
+    <row r="78" spans="1:2" ht="51">
       <c r="A78" s="4">
         <v>157428957</v>
       </c>
@@ -2760,7 +2848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" ht="51" spans="1:2">
+    <row r="79" spans="1:2" ht="51">
       <c r="A79" s="4">
         <v>162054444</v>
       </c>
@@ -2768,7 +2856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" ht="118" spans="1:2">
+    <row r="80" spans="1:2" ht="118">
       <c r="A80" s="4">
         <v>164382205</v>
       </c>
@@ -2776,7 +2864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" ht="135" spans="1:2">
+    <row r="81" spans="1:2" ht="135">
       <c r="A81" s="4">
         <v>165629089</v>
       </c>
@@ -2784,7 +2872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" ht="84" spans="1:2">
+    <row r="82" spans="1:2" ht="84">
       <c r="A82" s="4">
         <v>172792937</v>
       </c>
@@ -2792,7 +2880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" ht="101" spans="1:2">
+    <row r="83" spans="1:2" ht="101">
       <c r="A83" s="4">
         <v>185814975</v>
       </c>
@@ -2800,7 +2888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" ht="353" spans="1:2">
+    <row r="84" spans="1:2" ht="353">
       <c r="A84" s="4">
         <v>187140234</v>
       </c>
@@ -2808,7 +2896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" ht="68" spans="1:2">
+    <row r="85" spans="1:2" ht="68">
       <c r="A85" s="4">
         <v>194147651</v>
       </c>
@@ -2816,7 +2904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" ht="101" spans="1:2">
+    <row r="86" spans="1:2" ht="101">
       <c r="A86" s="4">
         <v>194263257</v>
       </c>
@@ -2824,7 +2912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" ht="168" spans="1:2">
+    <row r="87" spans="1:2" ht="168">
       <c r="A87" s="4">
         <v>197550141</v>
       </c>
@@ -2832,7 +2920,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" ht="202" spans="1:2">
+    <row r="88" spans="1:2" ht="202">
       <c r="A88" s="4">
         <v>199215541</v>
       </c>
@@ -2840,7 +2928,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" ht="34" spans="1:2">
+    <row r="89" spans="1:2" ht="34">
       <c r="A89" s="4">
         <v>202546104</v>
       </c>
@@ -2848,7 +2936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" ht="34" spans="1:2">
+    <row r="90" spans="1:2" ht="34">
       <c r="A90" s="4">
         <v>206288709</v>
       </c>
@@ -2856,7 +2944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" ht="101" spans="1:2">
+    <row r="91" spans="1:2" ht="101">
       <c r="A91" s="4">
         <v>206859771</v>
       </c>
@@ -2864,7 +2952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" ht="118" spans="1:2">
+    <row r="92" spans="1:2" ht="118">
       <c r="A92" s="4">
         <v>208457329</v>
       </c>
@@ -2872,7 +2960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" ht="51" spans="1:2">
+    <row r="93" spans="1:2" ht="51">
       <c r="A93" s="4">
         <v>222838513</v>
       </c>
@@ -2880,7 +2968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" ht="34" spans="1:2">
+    <row r="94" spans="1:2" ht="34">
       <c r="A94" s="4">
         <v>223448607</v>
       </c>
@@ -2888,7 +2976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" ht="34" spans="1:2">
+    <row r="95" spans="1:2" ht="34">
       <c r="A95" s="4">
         <v>224406511</v>
       </c>
@@ -2896,7 +2984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" ht="51" spans="1:2">
+    <row r="96" spans="1:2" ht="51">
       <c r="A96" s="4">
         <v>229184725</v>
       </c>
@@ -2904,7 +2992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" ht="51" spans="1:2">
+    <row r="97" spans="1:2" ht="51">
       <c r="A97" s="4">
         <v>230552185</v>
       </c>
@@ -2912,7 +3000,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" ht="68" spans="1:2">
+    <row r="98" spans="1:2" ht="68">
       <c r="A98" s="4">
         <v>237326929</v>
       </c>
@@ -2920,7 +3008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" ht="370" spans="1:2">
+    <row r="99" spans="1:2" ht="370">
       <c r="A99" s="4">
         <v>239773506</v>
       </c>
@@ -2928,7 +3016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" ht="68" spans="1:2">
+    <row r="100" spans="1:2" ht="68">
       <c r="A100" s="4">
         <v>240209671</v>
       </c>
@@ -2936,7 +3024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" ht="118" spans="1:2">
+    <row r="101" spans="1:2" ht="118">
       <c r="A101" s="4">
         <v>242503332</v>
       </c>
@@ -2944,7 +3032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" ht="118" spans="1:2">
+    <row r="102" spans="1:2" ht="118">
       <c r="A102" s="4">
         <v>245537550</v>
       </c>
@@ -2952,7 +3040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" ht="168" spans="1:2">
+    <row r="103" spans="1:2" ht="168">
       <c r="A103" s="4">
         <v>246856973</v>
       </c>
@@ -2960,7 +3048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" ht="84" spans="1:2">
+    <row r="104" spans="1:2" ht="84">
       <c r="A104" s="4">
         <v>252366528</v>
       </c>
@@ -2968,7 +3056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" ht="51" spans="1:2">
+    <row r="105" spans="1:2" ht="51">
       <c r="A105" s="4">
         <v>253257972</v>
       </c>
@@ -2976,7 +3064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" ht="409.5" spans="1:2">
+    <row r="106" spans="1:2" ht="409.5">
       <c r="A106" s="4">
         <v>256312714</v>
       </c>
@@ -2984,7 +3072,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" ht="68" spans="1:2">
+    <row r="107" spans="1:2" ht="68">
       <c r="A107" s="4">
         <v>256979022</v>
       </c>
@@ -2992,7 +3080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" ht="68" spans="1:2">
+    <row r="108" spans="1:2" ht="68">
       <c r="A108" s="4">
         <v>257518753</v>
       </c>
@@ -3000,7 +3088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" ht="51" spans="1:2">
+    <row r="109" spans="1:2" ht="51">
       <c r="A109" s="4">
         <v>257941475</v>
       </c>
@@ -3008,7 +3096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" ht="101" spans="1:2">
+    <row r="110" spans="1:2" ht="101">
       <c r="A110" s="4">
         <v>257963497</v>
       </c>
@@ -3016,7 +3104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" ht="51" spans="1:2">
+    <row r="111" spans="1:2" ht="51">
       <c r="A111" s="4">
         <v>258911813</v>
       </c>
@@ -3024,7 +3112,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" ht="51" spans="1:2">
+    <row r="112" spans="1:2" ht="51">
       <c r="A112" s="4">
         <v>259610655</v>
       </c>
@@ -3032,7 +3120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" ht="68" spans="1:2">
+    <row r="113" spans="1:2" ht="68">
       <c r="A113" s="4">
         <v>260347623</v>
       </c>
@@ -3040,7 +3128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" ht="34" spans="1:2">
+    <row r="114" spans="1:2" ht="34">
       <c r="A114" s="4">
         <v>260957547</v>
       </c>
@@ -3048,7 +3136,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" ht="68" spans="1:2">
+    <row r="115" spans="1:2" ht="68">
       <c r="A115" s="4">
         <v>261120870</v>
       </c>
@@ -3056,7 +3144,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" ht="118" spans="1:2">
+    <row r="116" spans="1:2" ht="118">
       <c r="A116" s="4">
         <v>261599674</v>
       </c>
@@ -3064,7 +3152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" ht="101" spans="1:2">
+    <row r="117" spans="1:2" ht="101">
       <c r="A117" s="4">
         <v>262167318</v>
       </c>
@@ -3072,7 +3160,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" ht="101" spans="1:2">
+    <row r="118" spans="1:2" ht="101">
       <c r="A118" s="4">
         <v>262506487</v>
       </c>
@@ -3080,7 +3168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" ht="51" spans="1:2">
+    <row r="119" spans="1:2" ht="51">
       <c r="A119" s="4">
         <v>262597731</v>
       </c>
@@ -3088,7 +3176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="168" spans="1:2">
+    <row r="120" spans="1:2" ht="168">
       <c r="A120" s="4">
         <v>264889521</v>
       </c>
@@ -3096,7 +3184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" ht="84" spans="1:2">
+    <row r="121" spans="1:2" ht="84">
       <c r="A121" s="4">
         <v>266608723</v>
       </c>
@@ -3104,7 +3192,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" ht="51" spans="1:2">
+    <row r="122" spans="1:2" ht="51">
       <c r="A122" s="4">
         <v>267191208</v>
       </c>
@@ -3112,7 +3200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" ht="84" spans="1:2">
+    <row r="123" spans="1:2" ht="84">
       <c r="A123" s="4">
         <v>269465587</v>
       </c>
@@ -3120,7 +3208,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" ht="101" spans="1:2">
+    <row r="124" spans="1:2" ht="101">
       <c r="A124" s="4">
         <v>272335588</v>
       </c>
@@ -3128,7 +3216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" ht="353" spans="1:2">
+    <row r="125" spans="1:2" ht="353">
       <c r="A125" s="4">
         <v>273398216</v>
       </c>
@@ -3136,7 +3224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" ht="118" spans="1:2">
+    <row r="126" spans="1:2" ht="118">
       <c r="A126" s="4">
         <v>273718172</v>
       </c>
@@ -3144,7 +3232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" ht="68" spans="1:2">
+    <row r="127" spans="1:2" ht="68">
       <c r="A127" s="4">
         <v>274233377</v>
       </c>
@@ -3152,7 +3240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" ht="101" spans="1:2">
+    <row r="128" spans="1:2" ht="101">
       <c r="A128" s="4">
         <v>274642895</v>
       </c>
@@ -3160,7 +3248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" ht="84" spans="1:2">
+    <row r="129" spans="1:2" ht="84">
       <c r="A129" s="4">
         <v>274652328</v>
       </c>
@@ -3168,7 +3256,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" ht="135" spans="1:2">
+    <row r="130" spans="1:2" ht="135">
       <c r="A130" s="4">
         <v>274726193</v>
       </c>
@@ -3176,7 +3264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" ht="68" spans="1:2">
+    <row r="131" spans="1:2" ht="68">
       <c r="A131" s="4">
         <v>274948923</v>
       </c>
@@ -3184,7 +3272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" ht="152" spans="1:2">
+    <row r="132" spans="1:2" ht="152">
       <c r="A132" s="4">
         <v>274964480</v>
       </c>
@@ -3192,7 +3280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" ht="152" spans="1:2">
+    <row r="133" spans="1:2" ht="152">
       <c r="A133" s="4">
         <v>275235720</v>
       </c>
@@ -3200,7 +3288,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" ht="118" spans="1:2">
+    <row r="134" spans="1:2" ht="118">
       <c r="A134" s="4">
         <v>276529111</v>
       </c>
@@ -3208,7 +3296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" ht="84" spans="1:2">
+    <row r="135" spans="1:2" ht="84">
       <c r="A135" s="4">
         <v>277179581</v>
       </c>
@@ -3216,7 +3304,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" ht="68" spans="1:2">
+    <row r="136" spans="1:2" ht="68">
       <c r="A136" s="4">
         <v>277451918</v>
       </c>
@@ -3224,7 +3312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" ht="34" spans="1:2">
+    <row r="137" spans="1:2" ht="34">
       <c r="A137" s="4">
         <v>277948491</v>
       </c>
@@ -3232,7 +3320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" ht="68" spans="1:2">
+    <row r="138" spans="1:2" ht="68">
       <c r="A138" s="4">
         <v>278222317</v>
       </c>
@@ -3240,7 +3328,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" ht="68" spans="1:2">
+    <row r="139" spans="1:2" ht="68">
       <c r="A139" s="4">
         <v>278302330</v>
       </c>
@@ -3248,7 +3336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" ht="135" spans="1:2">
+    <row r="140" spans="1:2" ht="135">
       <c r="A140" s="4">
         <v>278315355</v>
       </c>
@@ -3256,7 +3344,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" ht="84" spans="1:2">
+    <row r="141" spans="1:2" ht="84">
       <c r="A141" s="4">
         <v>278671338</v>
       </c>
@@ -3264,7 +3352,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" ht="51" spans="1:2">
+    <row r="142" spans="1:2" ht="51">
       <c r="A142" s="4">
         <v>278802144</v>
       </c>
@@ -3272,7 +3360,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" ht="320" spans="1:2">
+    <row r="143" spans="1:2" ht="320">
       <c r="A143" s="4">
         <v>278818594</v>
       </c>
@@ -3280,7 +3368,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" ht="101" spans="1:2">
+    <row r="144" spans="1:2" ht="101">
       <c r="A144" s="4">
         <v>279257716</v>
       </c>
@@ -3288,7 +3376,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" ht="135" spans="1:2">
+    <row r="145" spans="1:2" ht="135">
       <c r="A145" s="4">
         <v>279277239</v>
       </c>
@@ -3296,7 +3384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" ht="202" spans="1:2">
+    <row r="146" spans="1:2" ht="202">
       <c r="A146" s="4">
         <v>279298543</v>
       </c>
@@ -3304,7 +3392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" ht="252" spans="1:2">
+    <row r="147" spans="1:2" ht="252">
       <c r="A147" s="4">
         <v>279500596</v>
       </c>
@@ -3312,7 +3400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" ht="152" spans="1:2">
+    <row r="148" spans="1:2" ht="152">
       <c r="A148" s="4">
         <v>280124355</v>
       </c>
@@ -3320,7 +3408,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" ht="101" spans="1:2">
+    <row r="149" spans="1:2" ht="101">
       <c r="A149" s="4">
         <v>280142389</v>
       </c>
@@ -3328,7 +3416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" ht="101" spans="1:2">
+    <row r="150" spans="1:2" ht="101">
       <c r="A150" s="4">
         <v>281218258</v>
       </c>
@@ -3336,7 +3424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" ht="152" spans="1:2">
+    <row r="151" spans="1:2" ht="152">
       <c r="A151" s="4">
         <v>281281267</v>
       </c>
@@ -3344,7 +3432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" ht="68" spans="1:2">
+    <row r="152" spans="1:2" ht="68">
       <c r="A152" s="4">
         <v>281582422</v>
       </c>
@@ -3352,7 +3440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" ht="34" spans="1:2">
+    <row r="153" spans="1:2" ht="34">
       <c r="A153" s="4">
         <v>281875878</v>
       </c>
@@ -3360,7 +3448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" ht="17" spans="1:2">
+    <row r="154" spans="1:2" ht="17">
       <c r="A154" s="4">
         <v>282136861</v>
       </c>
@@ -3368,7 +3456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" ht="34" spans="1:2">
+    <row r="155" spans="1:2" ht="34">
       <c r="A155" s="4">
         <v>282515920</v>
       </c>
@@ -3376,7 +3464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" ht="34" spans="1:2">
+    <row r="156" spans="1:2" ht="34">
       <c r="A156" s="4">
         <v>282867767</v>
       </c>
@@ -3384,7 +3472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" ht="118" spans="1:2">
+    <row r="157" spans="1:2" ht="118">
       <c r="A157" s="4">
         <v>284260801</v>
       </c>
@@ -3392,7 +3480,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" ht="135" spans="1:2">
+    <row r="158" spans="1:2" ht="135">
       <c r="A158" s="4">
         <v>285360123</v>
       </c>
@@ -3400,7 +3488,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" ht="68" spans="1:2">
+    <row r="159" spans="1:2" ht="68">
       <c r="A159" s="4">
         <v>286061295</v>
       </c>
@@ -3408,7 +3496,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" ht="68" spans="1:2">
+    <row r="160" spans="1:2" ht="68">
       <c r="A160" s="4">
         <v>286061436</v>
       </c>
@@ -3416,7 +3504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" ht="84" spans="1:2">
+    <row r="161" spans="1:2" ht="84">
       <c r="A161" s="4">
         <v>286079943</v>
       </c>
@@ -3424,7 +3512,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" ht="185" spans="1:2">
+    <row r="162" spans="1:2" ht="185">
       <c r="A162" s="4">
         <v>287098890</v>
       </c>
@@ -3432,7 +3520,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" ht="84" spans="1:2">
+    <row r="163" spans="1:2" ht="84">
       <c r="A163" s="4">
         <v>288004092</v>
       </c>
@@ -3440,7 +3528,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="164" ht="202" spans="1:2">
+    <row r="164" spans="1:2" ht="202">
       <c r="A164" s="4">
         <v>289183618</v>
       </c>
@@ -3448,7 +3536,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" ht="219" spans="1:2">
+    <row r="165" spans="1:2" ht="219">
       <c r="A165" s="4">
         <v>290217204</v>
       </c>
@@ -3456,7 +3544,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" ht="17" spans="1:2">
+    <row r="166" spans="1:2" ht="17">
       <c r="A166" s="4">
         <v>290406799</v>
       </c>
@@ -3464,7 +3552,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" ht="219" spans="1:2">
+    <row r="167" spans="1:2" ht="219">
       <c r="A167" s="4">
         <v>290803966</v>
       </c>
@@ -3472,7 +3560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" ht="51" spans="1:2">
+    <row r="168" spans="1:2" ht="51">
       <c r="A168" s="4">
         <v>291579324</v>
       </c>
@@ -3480,7 +3568,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="169" ht="152" spans="1:2">
+    <row r="169" spans="1:2" ht="152">
       <c r="A169" s="4">
         <v>293979117</v>
       </c>
@@ -3488,7 +3576,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" ht="84" spans="1:2">
+    <row r="170" spans="1:2" ht="84">
       <c r="A170" s="4">
         <v>294139421</v>
       </c>
@@ -3496,7 +3584,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" ht="101" spans="1:2">
+    <row r="171" spans="1:2" ht="101">
       <c r="A171" s="4">
         <v>294285928</v>
       </c>
@@ -3504,7 +3592,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" ht="135" spans="1:2">
+    <row r="172" spans="1:2" ht="135">
       <c r="A172" s="4">
         <v>294539808</v>
       </c>
@@ -3512,7 +3600,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="173" ht="152" spans="1:2">
+    <row r="173" spans="1:2" ht="152">
       <c r="A173" s="4">
         <v>294930615</v>
       </c>
@@ -3520,7 +3608,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" ht="84" spans="1:2">
+    <row r="174" spans="1:2" ht="84">
       <c r="A174" s="4">
         <v>295117643</v>
       </c>
@@ -3528,7 +3616,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" ht="68" spans="1:2">
+    <row r="175" spans="1:2" ht="68">
       <c r="A175" s="4">
         <v>295640111</v>
       </c>
@@ -3536,7 +3624,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" ht="236" spans="1:2">
+    <row r="176" spans="1:2" ht="236">
       <c r="A176" s="4">
         <v>296077783</v>
       </c>
@@ -3544,7 +3632,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" ht="219" spans="1:2">
+    <row r="177" spans="1:2" ht="219">
       <c r="A177" s="4">
         <v>296155951</v>
       </c>
@@ -3552,7 +3640,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" ht="353" spans="1:2">
+    <row r="178" spans="1:2" ht="353">
       <c r="A178" s="4">
         <v>298605266</v>
       </c>
@@ -3560,7 +3648,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" ht="34" spans="1:2">
+    <row r="179" spans="1:2" ht="34">
       <c r="A179" s="4">
         <v>298759976</v>
       </c>
@@ -3568,7 +3656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" ht="51" spans="1:2">
+    <row r="180" spans="1:2" ht="51">
       <c r="A180" s="4">
         <v>299251778</v>
       </c>
@@ -3576,7 +3664,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" ht="84" spans="1:2">
+    <row r="181" spans="1:2" ht="84">
       <c r="A181" s="4">
         <v>299369444</v>
       </c>
@@ -3584,7 +3672,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" ht="101" spans="1:2">
+    <row r="182" spans="1:2" ht="101">
       <c r="A182" s="4">
         <v>299539483</v>
       </c>
@@ -3592,7 +3680,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" ht="84" spans="1:2">
+    <row r="183" spans="1:2" ht="84">
       <c r="A183" s="4">
         <v>299629908</v>
       </c>
@@ -3600,7 +3688,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" ht="168" spans="1:2">
+    <row r="184" spans="1:2" ht="168">
       <c r="A184" s="4">
         <v>299807940</v>
       </c>
@@ -3608,7 +3696,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" ht="51" spans="1:2">
+    <row r="185" spans="1:2" ht="51">
       <c r="A185" s="4">
         <v>300184277</v>
       </c>
@@ -3616,7 +3704,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" ht="135" spans="1:2">
+    <row r="186" spans="1:2" ht="135">
       <c r="A186" s="4">
         <v>300332417</v>
       </c>
@@ -3624,7 +3712,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" ht="168" spans="1:2">
+    <row r="187" spans="1:2" ht="168">
       <c r="A187" s="4">
         <v>310353206</v>
       </c>
@@ -3632,7 +3720,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" ht="286" spans="1:2">
+    <row r="188" spans="1:2" ht="286">
       <c r="A188" s="4">
         <v>310698910</v>
       </c>
@@ -3640,7 +3728,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" ht="101" spans="1:2">
+    <row r="189" spans="1:2" ht="101">
       <c r="A189" s="4">
         <v>311977773</v>
       </c>
@@ -3648,7 +3736,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" ht="135" spans="1:2">
+    <row r="190" spans="1:2" ht="135">
       <c r="A190" s="4">
         <v>312419162</v>
       </c>
@@ -3656,7 +3744,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" ht="409.5" spans="1:2">
+    <row r="191" spans="1:2" ht="409.5">
       <c r="A191" s="4">
         <v>314154161</v>
       </c>
@@ -3664,7 +3752,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" ht="185" spans="1:2">
+    <row r="192" spans="1:2" ht="185">
       <c r="A192" s="4">
         <v>316375015</v>
       </c>
@@ -3672,7 +3760,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" ht="135" spans="1:2">
+    <row r="193" spans="1:2" ht="135">
       <c r="A193" s="4">
         <v>318477420</v>
       </c>
@@ -3680,7 +3768,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" ht="320" spans="1:2">
+    <row r="194" spans="1:2" ht="320">
       <c r="A194" s="4">
         <v>318549897</v>
       </c>
@@ -3688,7 +3776,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="195" ht="135" spans="1:2">
+    <row r="195" spans="1:2" ht="135">
       <c r="A195" s="4">
         <v>318683080</v>
       </c>
@@ -3696,7 +3784,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="196" ht="51" spans="1:2">
+    <row r="196" spans="1:2" ht="51">
       <c r="A196" s="4">
         <v>319273884</v>
       </c>
@@ -3704,7 +3792,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="197" ht="84" spans="1:2">
+    <row r="197" spans="1:2" ht="84">
       <c r="A197" s="4">
         <v>320079260</v>
       </c>
@@ -3712,7 +3800,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" ht="34" spans="1:2">
+    <row r="198" spans="1:2" ht="34">
       <c r="A198" s="4">
         <v>320441809</v>
       </c>
@@ -3720,7 +3808,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="199" ht="84" spans="1:2">
+    <row r="199" spans="1:2" ht="84">
       <c r="A199" s="4">
         <v>320618427</v>
       </c>
@@ -3728,7 +3816,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" ht="387" spans="1:2">
+    <row r="200" spans="1:2" ht="387">
       <c r="A200" s="4">
         <v>320801613</v>
       </c>
@@ -3736,7 +3824,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="201" ht="101" spans="1:2">
+    <row r="201" spans="1:2" ht="101">
       <c r="A201" s="4">
         <v>321794226</v>
       </c>
@@ -3744,7 +3832,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="202" ht="118" spans="1:2">
+    <row r="202" spans="1:2" ht="118">
       <c r="A202" s="4">
         <v>322015890</v>
       </c>
@@ -3752,7 +3840,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="203" ht="152" spans="1:2">
+    <row r="203" spans="1:2" ht="152">
       <c r="A203" s="4">
         <v>322072042</v>
       </c>
@@ -3760,7 +3848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="204" ht="51" spans="1:2">
+    <row r="204" spans="1:2" ht="51">
       <c r="A204" s="4">
         <v>322542779</v>
       </c>
@@ -3768,7 +3856,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="205" ht="101" spans="1:2">
+    <row r="205" spans="1:2" ht="101">
       <c r="A205" s="4">
         <v>322554736</v>
       </c>
@@ -3776,7 +3864,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="206" ht="51" spans="1:2">
+    <row r="206" spans="1:2" ht="51">
       <c r="A206" s="4">
         <v>322819480</v>
       </c>
@@ -3784,7 +3872,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="207" ht="303" spans="1:2">
+    <row r="207" spans="1:2" ht="303">
       <c r="A207" s="4">
         <v>323035334</v>
       </c>
@@ -3792,7 +3880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" ht="409.5" spans="1:2">
+    <row r="208" spans="1:2" ht="409.5">
       <c r="A208" s="4">
         <v>323070030</v>
       </c>
@@ -3800,7 +3888,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="209" ht="135" spans="1:2">
+    <row r="209" spans="1:2" ht="135">
       <c r="A209" s="4">
         <v>323355649</v>
       </c>
@@ -3808,7 +3896,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="210" ht="135" spans="1:2">
+    <row r="210" spans="1:2" ht="135">
       <c r="A210" s="4">
         <v>323510637</v>
       </c>
@@ -3816,7 +3904,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="211" ht="68" spans="1:2">
+    <row r="211" spans="1:2" ht="68">
       <c r="A211" s="4">
         <v>324198754</v>
       </c>
@@ -3824,7 +3912,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="212" ht="135" spans="1:2">
+    <row r="212" spans="1:2" ht="135">
       <c r="A212" s="4">
         <v>324289180</v>
       </c>
@@ -3832,7 +3920,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="213" ht="51" spans="1:2">
+    <row r="213" spans="1:2" ht="51">
       <c r="A213" s="4">
         <v>324396197</v>
       </c>
@@ -3840,7 +3928,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="214" ht="152" spans="1:2">
+    <row r="214" spans="1:2" ht="152">
       <c r="A214" s="4">
         <v>324433381</v>
       </c>
@@ -3848,7 +3936,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="215" ht="68" spans="1:2">
+    <row r="215" spans="1:2" ht="68">
       <c r="A215" s="4">
         <v>324598603</v>
       </c>
@@ -3856,7 +3944,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="216" ht="185" spans="1:2">
+    <row r="216" spans="1:2" ht="185">
       <c r="A216" s="4">
         <v>324628619</v>
       </c>
@@ -3864,7 +3952,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="217" ht="68" spans="1:2">
+    <row r="217" spans="1:2" ht="68">
       <c r="A217" s="4">
         <v>324800252</v>
       </c>
@@ -3872,7 +3960,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" ht="101" spans="1:2">
+    <row r="218" spans="1:2" ht="101">
       <c r="A218" s="4">
         <v>324936038</v>
       </c>
@@ -3880,7 +3968,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="219" ht="152" spans="1:2">
+    <row r="219" spans="1:2" ht="152">
       <c r="A219" s="4">
         <v>324970051</v>
       </c>
@@ -3888,7 +3976,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="220" ht="118" spans="1:2">
+    <row r="220" spans="1:2" ht="118">
       <c r="A220" s="4">
         <v>325015554</v>
       </c>
@@ -3896,7 +3984,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="221" ht="34" spans="1:2">
+    <row r="221" spans="1:2" ht="34">
       <c r="A221" s="4">
         <v>325163987</v>
       </c>
@@ -3904,7 +3992,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="222" ht="303" spans="1:2">
+    <row r="222" spans="1:2" ht="303">
       <c r="A222" s="4">
         <v>325283267</v>
       </c>
@@ -3912,7 +4000,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="223" ht="118" spans="1:2">
+    <row r="223" spans="1:2" ht="118">
       <c r="A223" s="4">
         <v>325326043</v>
       </c>
@@ -3920,13 +4008,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="224" ht="16.8" spans="1:2">
+    <row r="224" spans="1:2" ht="16.8">
       <c r="A224" s="4">
         <v>325339682</v>
       </c>
       <c r="B224" s="5"/>
     </row>
-    <row r="225" ht="84" spans="1:2">
+    <row r="225" spans="1:2" ht="84">
       <c r="A225" s="4">
         <v>325875510</v>
       </c>
@@ -3934,7 +4022,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" ht="34" spans="1:2">
+    <row r="226" spans="1:2" ht="34">
       <c r="A226" s="4">
         <v>326045110</v>
       </c>
@@ -3942,7 +4030,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" ht="202" spans="1:2">
+    <row r="227" spans="1:2" ht="202">
       <c r="A227" s="4">
         <v>326144652</v>
       </c>
@@ -3950,7 +4038,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" ht="84" spans="1:2">
+    <row r="228" spans="1:2" ht="84">
       <c r="A228" s="4">
         <v>326200494</v>
       </c>
@@ -3958,7 +4046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" ht="84" spans="1:2">
+    <row r="229" spans="1:2" ht="84">
       <c r="A229" s="4">
         <v>326460288</v>
       </c>
@@ -3966,7 +4054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" ht="101" spans="1:2">
+    <row r="230" spans="1:2" ht="101">
       <c r="A230" s="4">
         <v>326510783</v>
       </c>
@@ -3974,7 +4062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" ht="152" spans="1:2">
+    <row r="231" spans="1:2" ht="152">
       <c r="A231" s="4">
         <v>326536159</v>
       </c>
@@ -3982,7 +4070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" ht="84" spans="1:2">
+    <row r="232" spans="1:2" ht="84">
       <c r="A232" s="4">
         <v>326540795</v>
       </c>
@@ -3990,7 +4078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" ht="101" spans="1:2">
+    <row r="233" spans="1:2" ht="101">
       <c r="A233" s="4">
         <v>326554388</v>
       </c>
@@ -3998,7 +4086,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" ht="202" spans="1:2">
+    <row r="234" spans="1:2" ht="202">
       <c r="A234" s="4">
         <v>326642194</v>
       </c>
@@ -4006,7 +4094,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" ht="84" spans="1:2">
+    <row r="235" spans="1:2" ht="84">
       <c r="A235" s="4">
         <v>326748396</v>
       </c>
@@ -4014,7 +4102,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" ht="68" spans="1:2">
+    <row r="236" spans="1:2" ht="68">
       <c r="A236" s="4">
         <v>326926841</v>
       </c>
@@ -4022,7 +4110,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" ht="51" spans="1:2">
+    <row r="237" spans="1:2" ht="51">
       <c r="A237" s="4">
         <v>327142704</v>
       </c>
@@ -4030,7 +4118,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" ht="118" spans="1:2">
+    <row r="238" spans="1:2" ht="118">
       <c r="A238" s="4">
         <v>327217487</v>
       </c>
@@ -4038,7 +4126,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" ht="101" spans="1:2">
+    <row r="239" spans="1:2" ht="101">
       <c r="A239" s="4">
         <v>327316467</v>
       </c>
@@ -4046,7 +4134,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" ht="118" spans="1:2">
+    <row r="240" spans="1:2" ht="118">
       <c r="A240" s="4">
         <v>327360194</v>
       </c>
@@ -4054,7 +4142,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" ht="68" spans="1:2">
+    <row r="241" spans="1:2" ht="68">
       <c r="A241" s="4">
         <v>327438481</v>
       </c>
@@ -4062,7 +4150,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" ht="101" spans="1:2">
+    <row r="242" spans="1:2" ht="101">
       <c r="A242" s="4">
         <v>327502851</v>
       </c>
@@ -4070,7 +4158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" ht="118" spans="1:2">
+    <row r="243" spans="1:2" ht="118">
       <c r="A243" s="4">
         <v>329217068</v>
       </c>
@@ -4078,7 +4166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" ht="236" spans="1:2">
+    <row r="244" spans="1:2" ht="236">
       <c r="A244" s="4">
         <v>330234228</v>
       </c>
@@ -4086,7 +4174,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" ht="84" spans="1:2">
+    <row r="245" spans="1:2" ht="84">
       <c r="A245" s="4">
         <v>333485420</v>
       </c>
@@ -4094,7 +4182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" ht="101" spans="1:2">
+    <row r="246" spans="1:2" ht="101">
       <c r="A246" s="4">
         <v>333848648</v>
       </c>
@@ -4102,7 +4190,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" ht="370" spans="1:2">
+    <row r="247" spans="1:2" ht="370">
       <c r="A247" s="4">
         <v>334122412</v>
       </c>
@@ -4110,7 +4198,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" ht="252" spans="1:2">
+    <row r="248" spans="1:2" ht="252">
       <c r="A248" s="4">
         <v>334366353</v>
       </c>
@@ -4118,7 +4206,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" ht="84" spans="1:2">
+    <row r="249" spans="1:2" ht="84">
       <c r="A249" s="4">
         <v>335461330</v>
       </c>
@@ -4126,7 +4214,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" ht="168" spans="1:2">
+    <row r="250" spans="1:2" ht="168">
       <c r="A250" s="4">
         <v>335836990</v>
       </c>
@@ -4134,7 +4222,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" ht="236" spans="1:2">
+    <row r="251" spans="1:2" ht="236">
       <c r="A251" s="4">
         <v>336005118</v>
       </c>
@@ -4142,7 +4230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" ht="336" spans="1:2">
+    <row r="252" spans="1:2" ht="336">
       <c r="A252" s="4">
         <v>336468143</v>
       </c>
@@ -4150,7 +4238,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" ht="252" spans="1:2">
+    <row r="253" spans="1:2" ht="252">
       <c r="A253" s="4">
         <v>337131824</v>
       </c>
@@ -4158,7 +4246,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" ht="303" spans="1:2">
+    <row r="254" spans="1:2" ht="303">
       <c r="A254" s="4">
         <v>337498941</v>
       </c>
@@ -4166,7 +4254,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255" ht="135" spans="1:2">
+    <row r="255" spans="1:2" ht="135">
       <c r="A255" s="4">
         <v>337692350</v>
       </c>
@@ -4174,7 +4262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" ht="135" spans="1:2">
+    <row r="256" spans="1:2" ht="135">
       <c r="A256" s="4">
         <v>337771060</v>
       </c>
@@ -4182,7 +4270,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" ht="68" spans="1:2">
+    <row r="257" spans="1:2" ht="68">
       <c r="A257" s="4">
         <v>337859288</v>
       </c>
@@ -4190,7 +4278,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" ht="101" spans="1:2">
+    <row r="258" spans="1:2" ht="101">
       <c r="A258" s="4">
         <v>338010283</v>
       </c>
@@ -4198,7 +4286,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" ht="84" spans="1:2">
+    <row r="259" spans="1:2" ht="84">
       <c r="A259" s="4">
         <v>338809085</v>
       </c>
@@ -4206,7 +4294,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" ht="101" spans="1:2">
+    <row r="260" spans="1:2" ht="101">
       <c r="A260" s="4">
         <v>338820504</v>
       </c>
@@ -4214,7 +4302,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" ht="51" spans="1:2">
+    <row r="261" spans="1:2" ht="51">
       <c r="A261" s="4">
         <v>339387267</v>
       </c>
@@ -4222,7 +4310,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" ht="185" spans="1:2">
+    <row r="262" spans="1:2" ht="185">
       <c r="A262" s="4">
         <v>339559313</v>
       </c>
@@ -4230,7 +4318,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" ht="202" spans="1:2">
+    <row r="263" spans="1:2" ht="202">
       <c r="A263" s="4">
         <v>339661747</v>
       </c>
@@ -4238,7 +4326,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" ht="17" spans="1:2">
+    <row r="264" spans="1:2" ht="17">
       <c r="A264" s="4">
         <v>339899586</v>
       </c>
@@ -4246,7 +4334,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" ht="68" spans="1:2">
+    <row r="265" spans="1:2" ht="68">
       <c r="A265" s="4">
         <v>340164547</v>
       </c>
@@ -4254,7 +4342,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" ht="152" spans="1:2">
+    <row r="266" spans="1:2" ht="152">
       <c r="A266" s="4">
         <v>340432496</v>
       </c>
@@ -4262,7 +4350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" ht="370" spans="1:2">
+    <row r="267" spans="1:2" ht="370">
       <c r="A267" s="4">
         <v>340702213</v>
       </c>
@@ -4270,7 +4358,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" ht="118" spans="1:2">
+    <row r="268" spans="1:2" ht="118">
       <c r="A268" s="4">
         <v>340733305</v>
       </c>
@@ -4278,7 +4366,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="269" ht="269" spans="1:2">
+    <row r="269" spans="1:2" ht="269">
       <c r="A269" s="4">
         <v>340830821</v>
       </c>
@@ -4286,7 +4374,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" ht="118" spans="1:2">
+    <row r="270" spans="1:2" ht="118">
       <c r="A270" s="4">
         <v>340939804</v>
       </c>
@@ -4294,7 +4382,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" ht="51" spans="1:2">
+    <row r="271" spans="1:2" ht="51">
       <c r="A271" s="4">
         <v>341088273</v>
       </c>
@@ -4302,7 +4390,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" ht="236" spans="1:2">
+    <row r="272" spans="1:2" ht="236">
       <c r="A272" s="4">
         <v>341090660</v>
       </c>
@@ -4310,7 +4398,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" ht="101" spans="1:2">
+    <row r="273" spans="1:2" ht="101">
       <c r="A273" s="4">
         <v>341174228</v>
       </c>
@@ -4318,7 +4406,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" ht="84" spans="1:2">
+    <row r="274" spans="1:2" ht="84">
       <c r="A274" s="4">
         <v>341239119</v>
       </c>
@@ -4326,7 +4414,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" ht="51" spans="1:2">
+    <row r="275" spans="1:2" ht="51">
       <c r="A275" s="4">
         <v>341309374</v>
       </c>
@@ -4334,7 +4422,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" ht="101" spans="1:2">
+    <row r="276" spans="1:2" ht="101">
       <c r="A276" s="4">
         <v>341369069</v>
       </c>
@@ -4342,7 +4430,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" ht="336" spans="1:2">
+    <row r="277" spans="1:2" ht="336">
       <c r="A277" s="4">
         <v>341446074</v>
       </c>
@@ -4350,7 +4438,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" ht="84" spans="1:2">
+    <row r="278" spans="1:2" ht="84">
       <c r="A278" s="4">
         <v>341545371</v>
       </c>
@@ -4358,7 +4446,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" ht="118" spans="1:2">
+    <row r="279" spans="1:2" ht="118">
       <c r="A279" s="4">
         <v>341676031</v>
       </c>
@@ -4366,7 +4454,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" ht="68" spans="1:2">
+    <row r="280" spans="1:2" ht="68">
       <c r="A280" s="4">
         <v>341681783</v>
       </c>
@@ -4374,7 +4462,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" ht="219" spans="1:2">
+    <row r="281" spans="1:2" ht="219">
       <c r="A281" s="4">
         <v>341920114</v>
       </c>
@@ -4382,7 +4470,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" ht="68" spans="1:2">
+    <row r="282" spans="1:2" ht="68">
       <c r="A282" s="4">
         <v>342099265</v>
       </c>
@@ -4390,7 +4478,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" ht="101" spans="1:2">
+    <row r="283" spans="1:2" ht="101">
       <c r="A283" s="4">
         <v>342381703</v>
       </c>
@@ -4398,7 +4486,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" ht="202" spans="1:2">
+    <row r="284" spans="1:2" ht="202">
       <c r="A284" s="4">
         <v>342392590</v>
       </c>
@@ -4406,7 +4494,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" ht="34" spans="1:2">
+    <row r="285" spans="1:2" ht="34">
       <c r="A285" s="4">
         <v>343014293</v>
       </c>
@@ -4414,7 +4502,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" ht="101" spans="1:2">
+    <row r="286" spans="1:2" ht="101">
       <c r="A286" s="4">
         <v>343282403</v>
       </c>
@@ -4422,7 +4510,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" ht="84" spans="1:2">
+    <row r="287" spans="1:2" ht="84">
       <c r="A287" s="4">
         <v>343336921</v>
       </c>
@@ -4430,7 +4518,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" ht="51" spans="1:2">
+    <row r="288" spans="1:2" ht="51">
       <c r="A288" s="4">
         <v>343663966</v>
       </c>
@@ -4438,7 +4526,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" ht="68" spans="1:2">
+    <row r="289" spans="1:2" ht="68">
       <c r="A289" s="4">
         <v>345415372</v>
       </c>
@@ -4446,7 +4534,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" ht="219" spans="1:2">
+    <row r="290" spans="1:2" ht="219">
       <c r="A290" s="4">
         <v>349882825</v>
       </c>
@@ -4454,7 +4542,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" ht="84" spans="1:2">
+    <row r="291" spans="1:2" ht="84">
       <c r="A291" s="4">
         <v>350900252</v>
       </c>
@@ -4462,7 +4550,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" ht="101" spans="1:2">
+    <row r="292" spans="1:2" ht="101">
       <c r="A292" s="4">
         <v>351231547</v>
       </c>
@@ -4470,7 +4558,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" ht="286" spans="1:2">
+    <row r="293" spans="1:2" ht="286">
       <c r="A293" s="4">
         <v>354355181</v>
       </c>
@@ -4478,7 +4566,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" ht="34" spans="1:2">
+    <row r="294" spans="1:2" ht="34">
       <c r="A294" s="4">
         <v>355435835</v>
       </c>
@@ -4486,7 +4574,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" ht="135" spans="1:2">
+    <row r="295" spans="1:2" ht="135">
       <c r="A295" s="4">
         <v>360911319</v>
       </c>
@@ -4494,7 +4582,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" ht="84" spans="1:2">
+    <row r="296" spans="1:2" ht="84">
       <c r="A296" s="4">
         <v>363936950</v>
       </c>
@@ -4502,7 +4590,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" ht="387" spans="1:2">
+    <row r="297" spans="1:2" ht="387">
       <c r="A297" s="4">
         <v>371887567</v>
       </c>
@@ -4510,7 +4598,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" ht="51" spans="1:2">
+    <row r="298" spans="1:2" ht="51">
       <c r="A298" s="4">
         <v>377195251</v>
       </c>
@@ -4518,7 +4606,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" ht="101" spans="1:2">
+    <row r="299" spans="1:2" ht="101">
       <c r="A299" s="4">
         <v>384755791</v>
       </c>
@@ -4526,7 +4614,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" ht="135" spans="1:2">
+    <row r="300" spans="1:2" ht="135">
       <c r="A300" s="4" t="s">
         <v>300</v>
       </c>
@@ -4534,7 +4622,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="301" ht="370" spans="1:2">
+    <row r="301" spans="1:2" ht="370">
       <c r="A301" s="4" t="s">
         <v>302</v>
       </c>
